--- a/XC-comparisons/32E-DAT_comparison.xlsx
+++ b/XC-comparisons/32E-DAT_comparison.xlsx
@@ -441,7 +441,7 @@
         <v>-300</v>
       </c>
       <c r="B2">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>-298</v>
       </c>
       <c r="B4">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>-294</v>
       </c>
       <c r="B8">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>-280</v>
       </c>
       <c r="B22">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>-278</v>
       </c>
       <c r="B24">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>-276</v>
       </c>
       <c r="B26">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>-273</v>
       </c>
       <c r="B29">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>-271</v>
       </c>
       <c r="B31">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>-269</v>
       </c>
       <c r="B33">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.00099999999999989</v>
       </c>
       <c r="G33">
         <v>0.00099999999999989</v>
@@ -1398,7 +1398,7 @@
         <v>-267</v>
       </c>
       <c r="B35">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>-266</v>
       </c>
       <c r="B36">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>-264</v>
       </c>
       <c r="B38">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-5.6843418860808e-14</v>
@@ -1543,7 +1543,7 @@
         <v>-262</v>
       </c>
       <c r="B40">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>5.6843418860808e-14</v>
@@ -1572,7 +1572,7 @@
         <v>-261</v>
       </c>
       <c r="B41">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>-259</v>
       </c>
       <c r="B43">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>-256</v>
       </c>
       <c r="B46">
-        <v>-0.0010000000000332</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>-255</v>
       </c>
       <c r="B47">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>-252</v>
       </c>
       <c r="B50">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>-251</v>
       </c>
       <c r="B51">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>-246</v>
       </c>
       <c r="B56">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>-244</v>
       </c>
       <c r="B58">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>1.13686837721616e-13</v>
@@ -2094,7 +2094,7 @@
         <v>-243</v>
       </c>
       <c r="B59">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>1.13686837721616e-13</v>
@@ -2123,7 +2123,7 @@
         <v>-242</v>
       </c>
       <c r="B60">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>-241</v>
       </c>
       <c r="B61">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>-236</v>
       </c>
       <c r="B66">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>-235</v>
       </c>
       <c r="B67">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>-233</v>
       </c>
       <c r="B69">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>1.13686837721616e-13</v>
@@ -2471,7 +2471,7 @@
         <v>-230</v>
       </c>
       <c r="B72">
-        <v>-0.00300000000004275</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>-228</v>
       </c>
       <c r="B74">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>-226</v>
       </c>
       <c r="B76">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>-225</v>
       </c>
       <c r="B77">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>-0.00200000000006639</v>
+        <v>-0.00100000000009004</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>-221</v>
       </c>
       <c r="B81">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>-220</v>
       </c>
       <c r="B82">
-        <v>-0.00300000000004275</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-219</v>
       </c>
       <c r="B83">
-        <v>-0.00300000000004275</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>-0.00200000000006639</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C84">
         <v>1.13686837721616e-13</v>
@@ -2877,7 +2877,7 @@
         <v>-216</v>
       </c>
       <c r="B86">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>-215</v>
       </c>
       <c r="B87">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>1.13686837721616e-13</v>
@@ -2935,7 +2935,7 @@
         <v>-214</v>
       </c>
       <c r="B88">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>-1.13686837721616e-13</v>
@@ -3051,7 +3051,7 @@
         <v>-210</v>
       </c>
       <c r="B92">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>-0.00100000000009004</v>
@@ -3080,7 +3080,7 @@
         <v>-209</v>
       </c>
       <c r="B93">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>-207</v>
       </c>
       <c r="B95">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C95">
         <v>-0.000999999999976353</v>
@@ -3283,7 +3283,7 @@
         <v>-202</v>
       </c>
       <c r="B100">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.00100000000000033</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-198</v>
       </c>
       <c r="B104">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>-194</v>
       </c>
       <c r="B108">
-        <v>-0.00200000000006639</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>-193</v>
       </c>
       <c r="B109">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>-192</v>
       </c>
       <c r="B110">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>-190</v>
       </c>
       <c r="B112">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>1.13686837721616e-13</v>
@@ -3660,7 +3660,7 @@
         <v>-189</v>
       </c>
       <c r="B113">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>-188</v>
       </c>
       <c r="B114">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>-187</v>
       </c>
       <c r="B115">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>-185</v>
       </c>
       <c r="B117">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>-182</v>
       </c>
       <c r="B120">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>-181</v>
       </c>
       <c r="B121">
-        <v>-0.00200000000006639</v>
+        <v>-0.00100000000009004</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>-180</v>
       </c>
       <c r="B122">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-177</v>
       </c>
       <c r="B125">
-        <v>-0.000999999999862666</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C125">
         <v>-1.13686837721616e-13</v>
@@ -4037,7 +4037,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C126">
         <v>-1.13686837721616e-13</v>
@@ -4066,7 +4066,7 @@
         <v>-175</v>
       </c>
       <c r="B127">
-        <v>-0.00199999999983902</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>-174</v>
       </c>
       <c r="B128">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>1.13686837721616e-13</v>
@@ -4124,7 +4124,7 @@
         <v>-173</v>
       </c>
       <c r="B129">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>-170</v>
       </c>
       <c r="B132">
-        <v>-0.0040000000000191</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>-167</v>
       </c>
       <c r="B135">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>-162</v>
       </c>
       <c r="B140">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>-159</v>
       </c>
       <c r="B143">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>-0.000999999999976353</v>
@@ -4588,7 +4588,7 @@
         <v>-157</v>
       </c>
       <c r="B145">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>-1.13686837721616e-13</v>
@@ -4646,7 +4646,7 @@
         <v>-155</v>
       </c>
       <c r="B147">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>-154</v>
       </c>
       <c r="B148">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>-152</v>
       </c>
       <c r="B150">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>-149</v>
       </c>
       <c r="B153">
-        <v>-0.00199999999995271</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4907,7 +4907,7 @@
         <v>-146</v>
       </c>
       <c r="B156">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>-145</v>
       </c>
       <c r="B157">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>-5.6843418860808e-14</v>
@@ -5023,7 +5023,7 @@
         <v>-142</v>
       </c>
       <c r="B160">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>-141</v>
       </c>
       <c r="B161">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>-140</v>
       </c>
       <c r="B162">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>-139</v>
       </c>
       <c r="B163">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>-138</v>
       </c>
       <c r="B164">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>-0.00100000000000011</v>
+        <v>-2.22044604925031e-16</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>-133</v>
       </c>
       <c r="B169">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>-131</v>
       </c>
       <c r="B171">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>-130</v>
       </c>
       <c r="B172">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>-5.6843418860808e-14</v>
@@ -5400,7 +5400,7 @@
         <v>-129</v>
       </c>
       <c r="B173">
-        <v>-0.00200000000006639</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>-128</v>
       </c>
       <c r="B174">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C174">
         <v>5.6843418860808e-14</v>
@@ -5574,7 +5574,7 @@
         <v>-123</v>
       </c>
       <c r="B179">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>-122</v>
       </c>
       <c r="B180">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>-121</v>
       </c>
       <c r="B181">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>-109</v>
       </c>
       <c r="B193">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C193">
         <v>-5.6843418860808e-14</v>
@@ -6009,7 +6009,7 @@
         <v>-108</v>
       </c>
       <c r="B194">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>-107</v>
       </c>
       <c r="B195">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>-105</v>
       </c>
       <c r="B197">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -6125,7 +6125,7 @@
         <v>-104</v>
       </c>
       <c r="B198">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -6154,7 +6154,7 @@
         <v>-103</v>
       </c>
       <c r="B199">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>-101</v>
       </c>
       <c r="B201">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>-100</v>
       </c>
       <c r="B202">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <v>-1.13686837721616e-13</v>
@@ -6299,7 +6299,7 @@
         <v>-98</v>
       </c>
       <c r="B204">
-        <v>-0.000999999999976353</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>-96</v>
       </c>
       <c r="B206">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>-95</v>
       </c>
       <c r="B207">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>-93</v>
       </c>
       <c r="B209">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>-91</v>
       </c>
       <c r="B211">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C211">
         <v>-1.13686837721616e-13</v>
@@ -6531,7 +6531,7 @@
         <v>-90</v>
       </c>
       <c r="B212">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C212">
         <v>1.13686837721616e-13</v>
@@ -6589,7 +6589,7 @@
         <v>-88</v>
       </c>
       <c r="B214">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6647,7 +6647,7 @@
         <v>-86</v>
       </c>
       <c r="B216">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>-85</v>
       </c>
       <c r="B217">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C217">
         <v>1.13686837721616e-13</v>
@@ -6734,7 +6734,7 @@
         <v>-83</v>
       </c>
       <c r="B219">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>-82</v>
       </c>
       <c r="B220">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -6821,7 +6821,7 @@
         <v>-80</v>
       </c>
       <c r="B222">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>1.13686837721616e-13</v>
@@ -6850,7 +6850,7 @@
         <v>-79</v>
       </c>
       <c r="B223">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>-78</v>
       </c>
       <c r="B224">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -6937,7 +6937,7 @@
         <v>-76</v>
       </c>
       <c r="B226">
-        <v>-0.000999999999862666</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -6966,7 +6966,7 @@
         <v>-75</v>
       </c>
       <c r="B227">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>-74</v>
       </c>
       <c r="B228">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>-73</v>
       </c>
       <c r="B229">
-        <v>-0.0040000000000191</v>
+        <v>0</v>
       </c>
       <c r="C229">
         <v>-1.13686837721616e-13</v>
@@ -7053,7 +7053,7 @@
         <v>-72</v>
       </c>
       <c r="B230">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>-71</v>
       </c>
       <c r="B231">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C231">
         <v>-1.13686837721616e-13</v>
@@ -7111,7 +7111,7 @@
         <v>-70</v>
       </c>
       <c r="B232">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>-1.13686837721616e-13</v>
@@ -7140,7 +7140,7 @@
         <v>-69</v>
       </c>
       <c r="B233">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C233">
         <v>-1.13686837721616e-13</v>
@@ -7169,7 +7169,7 @@
         <v>-68</v>
       </c>
       <c r="B234">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>-1.13686837721616e-13</v>
@@ -7181,7 +7181,7 @@
         <v>-0.000999999999976353</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>0.00099999999999989</v>
       </c>
       <c r="G234">
         <v>0.00100000000000033</v>
@@ -7227,7 +7227,7 @@
         <v>-66</v>
       </c>
       <c r="B236">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C236">
         <v>-1.13686837721616e-13</v>
@@ -7256,7 +7256,7 @@
         <v>-65</v>
       </c>
       <c r="B237">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>-64</v>
       </c>
       <c r="B238">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>-61</v>
       </c>
       <c r="B241">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999862666</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>-60</v>
       </c>
       <c r="B242">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>-55</v>
       </c>
       <c r="B247">
-        <v>-0.000999999999862666</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>-54</v>
       </c>
       <c r="B248">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>-1.13686837721616e-13</v>
@@ -7662,7 +7662,7 @@
         <v>-51</v>
       </c>
       <c r="B251">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C251">
         <v>1.13686837721616e-13</v>
@@ -7894,7 +7894,7 @@
         <v>-43</v>
       </c>
       <c r="B259">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -7923,7 +7923,7 @@
         <v>-42</v>
       </c>
       <c r="B260">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -7981,7 +7981,7 @@
         <v>-40</v>
       </c>
       <c r="B262">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C262">
         <v>-1.13686837721616e-13</v>
@@ -8010,7 +8010,7 @@
         <v>-39</v>
       </c>
       <c r="B263">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -8097,7 +8097,7 @@
         <v>-36</v>
       </c>
       <c r="B266">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C266">
         <v>-1.13686837721616e-13</v>
@@ -8126,7 +8126,7 @@
         <v>-35</v>
       </c>
       <c r="B267">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>-32</v>
       </c>
       <c r="B270">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C270">
         <v>-1.13686837721616e-13</v>
@@ -8242,7 +8242,7 @@
         <v>-31</v>
       </c>
       <c r="B271">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>-30</v>
       </c>
       <c r="B272">
-        <v>-0.00199999999995271</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>-29</v>
       </c>
       <c r="B273">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>-28</v>
       </c>
       <c r="B274">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C274">
         <v>1.13686837721616e-13</v>
@@ -8416,7 +8416,7 @@
         <v>-25</v>
       </c>
       <c r="B277">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C277">
         <v>-0.00100000000009004</v>
@@ -8445,7 +8445,7 @@
         <v>-24</v>
       </c>
       <c r="B278">
-        <v>-0.000999999999862666</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>-22</v>
       </c>
       <c r="B280">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>-20</v>
       </c>
       <c r="B282">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>-19</v>
       </c>
       <c r="B283">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -8648,7 +8648,7 @@
         <v>-17</v>
       </c>
       <c r="B285">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>-16</v>
       </c>
       <c r="B286">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -8735,7 +8735,7 @@
         <v>-14</v>
       </c>
       <c r="B288">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>-13</v>
       </c>
       <c r="B289">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>-0.00399999999990541</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>-11</v>
       </c>
       <c r="B291">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>-10</v>
       </c>
       <c r="B292">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>1.13686837721616e-13</v>
@@ -8880,7 +8880,7 @@
         <v>-9</v>
       </c>
       <c r="B293">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C293">
         <v>-1.13686837721616e-13</v>
@@ -8909,7 +8909,7 @@
         <v>-8</v>
       </c>
       <c r="B294">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>-7</v>
       </c>
       <c r="B295">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>-6</v>
       </c>
       <c r="B296">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>-5</v>
       </c>
       <c r="B297">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -9025,7 +9025,7 @@
         <v>-4</v>
       </c>
       <c r="B298">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -9315,7 +9315,7 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>7</v>
       </c>
       <c r="B309">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C309">
         <v>5.6843418860808e-14</v>
@@ -9402,7 +9402,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>13</v>
       </c>
       <c r="B315">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>15</v>
       </c>
       <c r="B317">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C317">
         <v>5.6843418860808e-14</v>
@@ -9634,7 +9634,7 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -9808,7 +9808,7 @@
         <v>23</v>
       </c>
       <c r="B325">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C325">
         <v>-2.8421709430404e-14</v>
@@ -9895,7 +9895,7 @@
         <v>26</v>
       </c>
       <c r="B328">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -9924,7 +9924,7 @@
         <v>27</v>
       </c>
       <c r="B329">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C329">
         <v>-2.8421709430404e-14</v>
@@ -10040,7 +10040,7 @@
         <v>31</v>
       </c>
       <c r="B333">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>32</v>
       </c>
       <c r="B334">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C335">
         <v>-2.8421709430404e-14</v>
@@ -10185,7 +10185,7 @@
         <v>36</v>
       </c>
       <c r="B338">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C338">
         <v>-2.8421709430404e-14</v>
@@ -10272,7 +10272,7 @@
         <v>39</v>
       </c>
       <c r="B341">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>48</v>
       </c>
       <c r="B350">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -10562,7 +10562,7 @@
         <v>49</v>
       </c>
       <c r="B351">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C351">
         <v>-1.4210854715202e-14</v>
@@ -10620,7 +10620,7 @@
         <v>51</v>
       </c>
       <c r="B353">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C353">
         <v>-1.4210854715202e-14</v>
@@ -10881,7 +10881,7 @@
         <v>60</v>
       </c>
       <c r="B362">
-        <v>-0.00100000000000477</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>83</v>
       </c>
       <c r="B385">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>96</v>
       </c>
       <c r="B398">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -12070,7 +12070,7 @@
         <v>101</v>
       </c>
       <c r="B403">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C403">
         <v>2.8421709430404e-14</v>
@@ -12099,7 +12099,7 @@
         <v>102</v>
       </c>
       <c r="B404">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C404">
         <v>2.8421709430404e-14</v>
@@ -12128,7 +12128,7 @@
         <v>103</v>
       </c>
       <c r="B405">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C405">
         <v>2.8421709430404e-14</v>
@@ -12244,7 +12244,7 @@
         <v>107</v>
       </c>
       <c r="B409">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -12273,7 +12273,7 @@
         <v>108</v>
       </c>
       <c r="B410">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C410">
         <v>-5.6843418860808e-14</v>
@@ -12302,7 +12302,7 @@
         <v>109</v>
       </c>
       <c r="B411">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>110</v>
       </c>
       <c r="B412">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -12418,7 +12418,7 @@
         <v>113</v>
       </c>
       <c r="B415">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C415">
         <v>0.00099999999991951</v>
@@ -12505,7 +12505,7 @@
         <v>116</v>
       </c>
       <c r="B418">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -12534,7 +12534,7 @@
         <v>117</v>
       </c>
       <c r="B419">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -12592,7 +12592,7 @@
         <v>119</v>
       </c>
       <c r="B421">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>121</v>
       </c>
       <c r="B423">
-        <v>-0.00200000000000955</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -12691,7 +12691,7 @@
         <v>-0.00100000000000477</v>
       </c>
       <c r="F424">
-        <v>-0.00399999999999956</v>
+        <v>-0.00300000000000011</v>
       </c>
       <c r="G424">
         <v>-0.00400000000000045</v>
@@ -12737,7 +12737,7 @@
         <v>124</v>
       </c>
       <c r="B426">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>125</v>
       </c>
       <c r="B427">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>127</v>
       </c>
       <c r="B429">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>128</v>
       </c>
       <c r="B430">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -12940,7 +12940,7 @@
         <v>131</v>
       </c>
       <c r="B433">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -12969,7 +12969,7 @@
         <v>132</v>
       </c>
       <c r="B434">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C434">
         <v>-1.13686837721616e-13</v>
@@ -12998,7 +12998,7 @@
         <v>133</v>
       </c>
       <c r="B435">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>135</v>
       </c>
       <c r="B437">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -13114,7 +13114,7 @@
         <v>137</v>
       </c>
       <c r="B439">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C439">
         <v>-1.13686837721616e-13</v>
@@ -13172,7 +13172,7 @@
         <v>139</v>
       </c>
       <c r="B441">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C441">
         <v>-1.13686837721616e-13</v>
@@ -13288,7 +13288,7 @@
         <v>143</v>
       </c>
       <c r="B445">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C445">
         <v>-1.13686837721616e-13</v>
@@ -13317,7 +13317,7 @@
         <v>144</v>
       </c>
       <c r="B446">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C446">
         <v>-0.00100000000009004</v>
@@ -13346,7 +13346,7 @@
         <v>145</v>
       </c>
       <c r="B447">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>146</v>
       </c>
       <c r="B448">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C448">
         <v>-1.13686837721616e-13</v>
@@ -13404,7 +13404,7 @@
         <v>147</v>
       </c>
       <c r="B449">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C449">
         <v>-1.13686837721616e-13</v>
@@ -13433,7 +13433,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>-0.00199999999995271</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -13549,7 +13549,7 @@
         <v>152</v>
       </c>
       <c r="B454">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C454">
         <v>-1.13686837721616e-13</v>
@@ -13578,7 +13578,7 @@
         <v>153</v>
       </c>
       <c r="B455">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -13607,7 +13607,7 @@
         <v>154</v>
       </c>
       <c r="B456">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C456">
         <v>-0.00100000000009004</v>
@@ -13636,7 +13636,7 @@
         <v>155</v>
       </c>
       <c r="B457">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>158</v>
       </c>
       <c r="B460">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -13752,7 +13752,7 @@
         <v>159</v>
       </c>
       <c r="B461">
-        <v>-0.00200000000006639</v>
+        <v>0</v>
       </c>
       <c r="C461">
         <v>1.13686837721616e-13</v>
@@ -13781,7 +13781,7 @@
         <v>160</v>
       </c>
       <c r="B462">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -13810,7 +13810,7 @@
         <v>161</v>
       </c>
       <c r="B463">
-        <v>-0.00300000000004275</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C463">
         <v>-1.13686837721616e-13</v>
@@ -13839,7 +13839,7 @@
         <v>162</v>
       </c>
       <c r="B464">
-        <v>-0.00299999999992906</v>
+        <v>0</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -13897,7 +13897,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>-0.00299999999992906</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -13926,7 +13926,7 @@
         <v>165</v>
       </c>
       <c r="B467">
-        <v>-0.00100000000009004</v>
+        <v>0</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -14013,7 +14013,7 @@
         <v>168</v>
       </c>
       <c r="B470">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -14042,7 +14042,7 @@
         <v>169</v>
       </c>
       <c r="B471">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C471">
         <v>-1.13686837721616e-13</v>
@@ -14100,7 +14100,7 @@
         <v>171</v>
       </c>
       <c r="B473">
-        <v>-0.00200000000006639</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -14129,7 +14129,7 @@
         <v>172</v>
       </c>
       <c r="B474">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -14187,7 +14187,7 @@
         <v>174</v>
       </c>
       <c r="B476">
-        <v>-0.00300000000004275</v>
+        <v>0</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -14216,7 +14216,7 @@
         <v>175</v>
       </c>
       <c r="B477">
-        <v>-0.00199999999995271</v>
+        <v>0</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -14274,7 +14274,7 @@
         <v>177</v>
       </c>
       <c r="B479">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -14303,7 +14303,7 @@
         <v>178</v>
       </c>
       <c r="B480">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>179</v>
       </c>
       <c r="B481">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -14361,7 +14361,7 @@
         <v>180</v>
       </c>
       <c r="B482">
-        <v>-0.00299999999992906</v>
+        <v>-0.000999999999976353</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -14390,7 +14390,7 @@
         <v>181</v>
       </c>
       <c r="B483">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C483">
         <v>1.13686837721616e-13</v>
@@ -14448,7 +14448,7 @@
         <v>183</v>
       </c>
       <c r="B485">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -14506,7 +14506,7 @@
         <v>185</v>
       </c>
       <c r="B487">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C487">
         <v>5.6843418860808e-14</v>
@@ -14564,7 +14564,7 @@
         <v>187</v>
       </c>
       <c r="B489">
-        <v>-0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -14651,7 +14651,7 @@
         <v>190</v>
       </c>
       <c r="B492">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -14680,7 +14680,7 @@
         <v>191</v>
       </c>
       <c r="B493">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -14709,7 +14709,7 @@
         <v>192</v>
       </c>
       <c r="B494">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C494">
         <v>-5.6843418860808e-14</v>
@@ -14767,7 +14767,7 @@
         <v>194</v>
       </c>
       <c r="B496">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -14912,7 +14912,7 @@
         <v>199</v>
       </c>
       <c r="B501">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -14941,7 +14941,7 @@
         <v>200</v>
       </c>
       <c r="B502">
-        <v>-0.000999999999976353</v>
+        <v>2.8421709430404e-14</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -14970,7 +14970,7 @@
         <v>201</v>
       </c>
       <c r="B503">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -15057,7 +15057,7 @@
         <v>204</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>0.00100000000000477</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -15318,7 +15318,7 @@
         <v>213</v>
       </c>
       <c r="B515">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -15608,7 +15608,7 @@
         <v>223</v>
       </c>
       <c r="B525">
-        <v>-0.00100000000000477</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -16594,7 +16594,7 @@
         <v>257</v>
       </c>
       <c r="B559">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>283</v>
       </c>
       <c r="B585">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C585">
         <v>-3.5527136788005e-15</v>
@@ -17841,7 +17841,7 @@
         <v>300</v>
       </c>
       <c r="B602">
-        <v>-0.000999999999999446</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="C602">
         <v>1.77635683940025e-15</v>
@@ -35383,7 +35383,7 @@
         <v>-300</v>
       </c>
       <c r="B2">
-        <v>132.525</v>
+        <v>132.526</v>
       </c>
       <c r="C2">
         <v>132.606</v>
@@ -35441,7 +35441,7 @@
         <v>-298</v>
       </c>
       <c r="B4">
-        <v>137.944</v>
+        <v>137.945</v>
       </c>
       <c r="C4">
         <v>138.036</v>
@@ -35557,7 +35557,7 @@
         <v>-294</v>
       </c>
       <c r="B8">
-        <v>149.898</v>
+        <v>149.899</v>
       </c>
       <c r="C8">
         <v>150.016</v>
@@ -35963,7 +35963,7 @@
         <v>-280</v>
       </c>
       <c r="B22">
-        <v>207.882</v>
+        <v>207.883</v>
       </c>
       <c r="C22">
         <v>208.19</v>
@@ -36021,7 +36021,7 @@
         <v>-278</v>
       </c>
       <c r="B24">
-        <v>218.989</v>
+        <v>218.99</v>
       </c>
       <c r="C24">
         <v>219.347</v>
@@ -36079,7 +36079,7 @@
         <v>-276</v>
       </c>
       <c r="B26">
-        <v>231.04</v>
+        <v>231.041</v>
       </c>
       <c r="C26">
         <v>231.457</v>
@@ -36166,7 +36166,7 @@
         <v>-273</v>
       </c>
       <c r="B29">
-        <v>251.118</v>
+        <v>251.119</v>
       </c>
       <c r="C29">
         <v>251.645</v>
@@ -36224,7 +36224,7 @@
         <v>-271</v>
       </c>
       <c r="B31">
-        <v>266.013</v>
+        <v>266.014</v>
       </c>
       <c r="C31">
         <v>266.632</v>
@@ -36282,7 +36282,7 @@
         <v>-269</v>
       </c>
       <c r="B33">
-        <v>282.276</v>
+        <v>282.277</v>
       </c>
       <c r="C33">
         <v>283.005</v>
@@ -36294,7 +36294,7 @@
         <v>220.649</v>
       </c>
       <c r="F33">
-        <v>2.001</v>
+        <v>2.002</v>
       </c>
       <c r="G33">
         <v>2.002</v>
@@ -36340,7 +36340,7 @@
         <v>-267</v>
       </c>
       <c r="B35">
-        <v>300.059</v>
+        <v>300.06</v>
       </c>
       <c r="C35">
         <v>300.922</v>
@@ -36369,7 +36369,7 @@
         <v>-266</v>
       </c>
       <c r="B36">
-        <v>309.572</v>
+        <v>309.573</v>
       </c>
       <c r="C36">
         <v>310.513</v>
@@ -36427,7 +36427,7 @@
         <v>-264</v>
       </c>
       <c r="B38">
-        <v>329.953</v>
+        <v>329.954</v>
       </c>
       <c r="C38">
         <v>331.073</v>
@@ -36485,7 +36485,7 @@
         <v>-262</v>
       </c>
       <c r="B40">
-        <v>352.297</v>
+        <v>352.298</v>
       </c>
       <c r="C40">
         <v>353.636</v>
@@ -36514,7 +36514,7 @@
         <v>-261</v>
       </c>
       <c r="B41">
-        <v>364.265</v>
+        <v>364.266</v>
       </c>
       <c r="C41">
         <v>365.73</v>
@@ -36572,7 +36572,7 @@
         <v>-259</v>
       </c>
       <c r="B43">
-        <v>389.912</v>
+        <v>389.913</v>
       </c>
       <c r="C43">
         <v>391.675</v>
@@ -36659,7 +36659,7 @@
         <v>-256</v>
       </c>
       <c r="B46">
-        <v>432.998</v>
+        <v>433</v>
       </c>
       <c r="C46">
         <v>435.34</v>
@@ -36688,7 +36688,7 @@
         <v>-255</v>
       </c>
       <c r="B47">
-        <v>448.666</v>
+        <v>448.667</v>
       </c>
       <c r="C47">
         <v>451.245</v>
@@ -36775,7 +36775,7 @@
         <v>-252</v>
       </c>
       <c r="B50">
-        <v>499.721</v>
+        <v>499.723</v>
       </c>
       <c r="C50">
         <v>503.184</v>
@@ -36804,7 +36804,7 @@
         <v>-251</v>
       </c>
       <c r="B51">
-        <v>518.078</v>
+        <v>518.079</v>
       </c>
       <c r="C51">
         <v>521.904</v>
@@ -36949,7 +36949,7 @@
         <v>-246</v>
       </c>
       <c r="B56">
-        <v>618.418</v>
+        <v>618.419</v>
       </c>
       <c r="C56">
         <v>624.763</v>
@@ -36978,7 +36978,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>639.677</v>
+        <v>639.678</v>
       </c>
       <c r="C57">
         <v>646.702</v>
@@ -37007,7 +37007,7 @@
         <v>-244</v>
       </c>
       <c r="B58">
-        <v>661.063</v>
+        <v>661.064</v>
       </c>
       <c r="C58">
         <v>668.839</v>
@@ -37036,7 +37036,7 @@
         <v>-243</v>
       </c>
       <c r="B59">
-        <v>682.413</v>
+        <v>682.414</v>
       </c>
       <c r="C59">
         <v>691.017</v>
@@ -37065,7 +37065,7 @@
         <v>-242</v>
       </c>
       <c r="B60">
-        <v>703.543</v>
+        <v>703.544</v>
       </c>
       <c r="C60">
         <v>713.058</v>
@@ -37094,7 +37094,7 @@
         <v>-241</v>
       </c>
       <c r="B61">
-        <v>724.249</v>
+        <v>724.25</v>
       </c>
       <c r="C61">
         <v>734.765</v>
@@ -37123,7 +37123,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>744.315</v>
+        <v>744.316</v>
       </c>
       <c r="C62">
         <v>755.925</v>
@@ -37239,7 +37239,7 @@
         <v>-236</v>
       </c>
       <c r="B66">
-        <v>813.736</v>
+        <v>813.739</v>
       </c>
       <c r="C66">
         <v>830.78</v>
@@ -37268,7 +37268,7 @@
         <v>-235</v>
       </c>
       <c r="B67">
-        <v>827.385</v>
+        <v>827.387</v>
       </c>
       <c r="C67">
         <v>846.075</v>
@@ -37326,7 +37326,7 @@
         <v>-233</v>
       </c>
       <c r="B69">
-        <v>849.251</v>
+        <v>849.252</v>
       </c>
       <c r="C69">
         <v>871.618</v>
@@ -37355,7 +37355,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>857.357</v>
+        <v>857.36</v>
       </c>
       <c r="C70">
         <v>881.769</v>
@@ -37413,7 +37413,7 @@
         <v>-230</v>
       </c>
       <c r="B72">
-        <v>868.003</v>
+        <v>868.006</v>
       </c>
       <c r="C72">
         <v>896.953</v>
@@ -37471,7 +37471,7 @@
         <v>-228</v>
       </c>
       <c r="B74">
-        <v>871.827</v>
+        <v>871.83</v>
       </c>
       <c r="C74">
         <v>905.988</v>
@@ -37529,7 +37529,7 @@
         <v>-226</v>
       </c>
       <c r="B76">
-        <v>869.957</v>
+        <v>869.959</v>
       </c>
       <c r="C76">
         <v>910.118</v>
@@ -37558,7 +37558,7 @@
         <v>-225</v>
       </c>
       <c r="B77">
-        <v>867.307</v>
+        <v>867.308</v>
       </c>
       <c r="C77">
         <v>910.81</v>
@@ -37616,7 +37616,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>859.415</v>
+        <v>859.416</v>
       </c>
       <c r="C79">
         <v>910.404</v>
@@ -37645,7 +37645,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>854.481</v>
+        <v>854.482</v>
       </c>
       <c r="C80">
         <v>909.668</v>
@@ -37674,7 +37674,7 @@
         <v>-221</v>
       </c>
       <c r="B81">
-        <v>849.066</v>
+        <v>849.069</v>
       </c>
       <c r="C81">
         <v>908.793</v>
@@ -37703,7 +37703,7 @@
         <v>-220</v>
       </c>
       <c r="B82">
-        <v>843.283</v>
+        <v>843.286</v>
       </c>
       <c r="C82">
         <v>907.922</v>
@@ -37732,7 +37732,7 @@
         <v>-219</v>
       </c>
       <c r="B83">
-        <v>837.22</v>
+        <v>837.223</v>
       </c>
       <c r="C83">
         <v>907.179</v>
@@ -37761,7 +37761,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>830.944</v>
+        <v>830.945</v>
       </c>
       <c r="C84">
         <v>906.667</v>
@@ -37819,7 +37819,7 @@
         <v>-216</v>
       </c>
       <c r="B86">
-        <v>817.915</v>
+        <v>817.916</v>
       </c>
       <c r="C86">
         <v>906.643</v>
@@ -37848,7 +37848,7 @@
         <v>-215</v>
       </c>
       <c r="B87">
-        <v>811.193</v>
+        <v>811.194</v>
       </c>
       <c r="C87">
         <v>907.234</v>
@@ -37877,7 +37877,7 @@
         <v>-214</v>
       </c>
       <c r="B88">
-        <v>804.321</v>
+        <v>804.322</v>
       </c>
       <c r="C88">
         <v>908.261</v>
@@ -37993,7 +37993,7 @@
         <v>-210</v>
       </c>
       <c r="B92">
-        <v>774.526</v>
+        <v>774.528</v>
       </c>
       <c r="C92">
         <v>916.405</v>
@@ -38022,7 +38022,7 @@
         <v>-209</v>
       </c>
       <c r="B93">
-        <v>766.205</v>
+        <v>766.206</v>
       </c>
       <c r="C93">
         <v>919.193</v>
@@ -38080,7 +38080,7 @@
         <v>-207</v>
       </c>
       <c r="B95">
-        <v>748.082</v>
+        <v>748.083</v>
       </c>
       <c r="C95">
         <v>925.056</v>
@@ -38225,7 +38225,7 @@
         <v>-202</v>
       </c>
       <c r="B100">
-        <v>698.176</v>
+        <v>698.177</v>
       </c>
       <c r="C100">
         <v>935.904</v>
@@ -38324,7 +38324,7 @@
         <v>631.033</v>
       </c>
       <c r="F103">
-        <v>6.404</v>
+        <v>6.405</v>
       </c>
       <c r="G103">
         <v>6.425</v>
@@ -38341,7 +38341,7 @@
         <v>-198</v>
       </c>
       <c r="B104">
-        <v>712.161</v>
+        <v>712.162</v>
       </c>
       <c r="C104">
         <v>934.275</v>
@@ -38457,7 +38457,7 @@
         <v>-194</v>
       </c>
       <c r="B108">
-        <v>750.728</v>
+        <v>750.729</v>
       </c>
       <c r="C108">
         <v>922.685</v>
@@ -38486,7 +38486,7 @@
         <v>-193</v>
       </c>
       <c r="B109">
-        <v>758.669</v>
+        <v>758.67</v>
       </c>
       <c r="C109">
         <v>918.825</v>
@@ -38515,7 +38515,7 @@
         <v>-192</v>
       </c>
       <c r="B110">
-        <v>765.868</v>
+        <v>765.87</v>
       </c>
       <c r="C110">
         <v>914.809</v>
@@ -38573,7 +38573,7 @@
         <v>-190</v>
       </c>
       <c r="B112">
-        <v>778.332</v>
+        <v>778.334</v>
       </c>
       <c r="C112">
         <v>906.774</v>
@@ -38602,7 +38602,7 @@
         <v>-189</v>
       </c>
       <c r="B113">
-        <v>783.772</v>
+        <v>783.773</v>
       </c>
       <c r="C113">
         <v>902.96</v>
@@ -38631,7 +38631,7 @@
         <v>-188</v>
       </c>
       <c r="B114">
-        <v>788.801</v>
+        <v>788.802</v>
       </c>
       <c r="C114">
         <v>899.395</v>
@@ -38660,7 +38660,7 @@
         <v>-187</v>
       </c>
       <c r="B115">
-        <v>793.504</v>
+        <v>793.506</v>
       </c>
       <c r="C115">
         <v>896.145</v>
@@ -38718,7 +38718,7 @@
         <v>-185</v>
       </c>
       <c r="B117">
-        <v>802.207</v>
+        <v>802.21</v>
       </c>
       <c r="C117">
         <v>890.757</v>
@@ -38805,7 +38805,7 @@
         <v>-182</v>
       </c>
       <c r="B120">
-        <v>814.136</v>
+        <v>814.139</v>
       </c>
       <c r="C120">
         <v>885.567</v>
@@ -38834,7 +38834,7 @@
         <v>-181</v>
       </c>
       <c r="B121">
-        <v>817.854</v>
+        <v>817.855</v>
       </c>
       <c r="C121">
         <v>884.503</v>
@@ -38863,7 +38863,7 @@
         <v>-180</v>
       </c>
       <c r="B122">
-        <v>821.402</v>
+        <v>821.403</v>
       </c>
       <c r="C122">
         <v>883.672</v>
@@ -38950,7 +38950,7 @@
         <v>-177</v>
       </c>
       <c r="B125">
-        <v>830.388</v>
+        <v>830.389</v>
       </c>
       <c r="C125">
         <v>881.588</v>
@@ -38979,7 +38979,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>832.52</v>
+        <v>832.521</v>
       </c>
       <c r="C126">
         <v>880.616</v>
@@ -39008,7 +39008,7 @@
         <v>-175</v>
       </c>
       <c r="B127">
-        <v>834.022</v>
+        <v>834.024</v>
       </c>
       <c r="C127">
         <v>879.26</v>
@@ -39037,7 +39037,7 @@
         <v>-174</v>
       </c>
       <c r="B128">
-        <v>834.755</v>
+        <v>834.758</v>
       </c>
       <c r="C128">
         <v>877.354</v>
@@ -39066,7 +39066,7 @@
         <v>-173</v>
       </c>
       <c r="B129">
-        <v>834.573</v>
+        <v>834.574</v>
       </c>
       <c r="C129">
         <v>874.73</v>
@@ -39153,7 +39153,7 @@
         <v>-170</v>
       </c>
       <c r="B132">
-        <v>827.057</v>
+        <v>827.061</v>
       </c>
       <c r="C132">
         <v>860.888</v>
@@ -39240,7 +39240,7 @@
         <v>-167</v>
       </c>
       <c r="B135">
-        <v>806.622</v>
+        <v>806.625</v>
       </c>
       <c r="C135">
         <v>835.298</v>
@@ -39327,7 +39327,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>772.107</v>
+        <v>772.11</v>
       </c>
       <c r="C138">
         <v>796.529</v>
@@ -39385,7 +39385,7 @@
         <v>-162</v>
       </c>
       <c r="B140">
-        <v>742.164</v>
+        <v>742.166</v>
       </c>
       <c r="C140">
         <v>764.17</v>
@@ -39472,7 +39472,7 @@
         <v>-159</v>
       </c>
       <c r="B143">
-        <v>690.062</v>
+        <v>690.064</v>
       </c>
       <c r="C143">
         <v>709.009</v>
@@ -39530,7 +39530,7 @@
         <v>-157</v>
       </c>
       <c r="B145">
-        <v>652.863</v>
+        <v>652.865</v>
       </c>
       <c r="C145">
         <v>670.116</v>
@@ -39588,7 +39588,7 @@
         <v>-155</v>
       </c>
       <c r="B147">
-        <v>615.468</v>
+        <v>615.469</v>
       </c>
       <c r="C147">
         <v>631.278</v>
@@ -39617,7 +39617,7 @@
         <v>-154</v>
       </c>
       <c r="B148">
-        <v>597.094</v>
+        <v>597.096</v>
       </c>
       <c r="C148">
         <v>612.27</v>
@@ -39675,7 +39675,7 @@
         <v>-152</v>
       </c>
       <c r="B150">
-        <v>561.611</v>
+        <v>561.613</v>
       </c>
       <c r="C150">
         <v>575.678</v>
@@ -39762,7 +39762,7 @@
         <v>-149</v>
       </c>
       <c r="B153">
-        <v>512.785</v>
+        <v>512.787</v>
       </c>
       <c r="C153">
         <v>525.539</v>
@@ -39849,7 +39849,7 @@
         <v>-146</v>
       </c>
       <c r="B156">
-        <v>470.323</v>
+        <v>470.325</v>
       </c>
       <c r="C156">
         <v>482.11</v>
@@ -39878,7 +39878,7 @@
         <v>-145</v>
       </c>
       <c r="B157">
-        <v>457.664</v>
+        <v>457.665</v>
       </c>
       <c r="C157">
         <v>469.193</v>
@@ -39965,7 +39965,7 @@
         <v>-142</v>
       </c>
       <c r="B160">
-        <v>424.135</v>
+        <v>424.136</v>
       </c>
       <c r="C160">
         <v>435.048</v>
@@ -39994,7 +39994,7 @@
         <v>-141</v>
       </c>
       <c r="B161">
-        <v>414.405</v>
+        <v>414.406</v>
       </c>
       <c r="C161">
         <v>425.158</v>
@@ -40023,7 +40023,7 @@
         <v>-140</v>
       </c>
       <c r="B162">
-        <v>405.373</v>
+        <v>405.375</v>
       </c>
       <c r="C162">
         <v>415.986</v>
@@ -40052,7 +40052,7 @@
         <v>-139</v>
       </c>
       <c r="B163">
-        <v>397.025</v>
+        <v>397.026</v>
       </c>
       <c r="C163">
         <v>407.514</v>
@@ -40081,7 +40081,7 @@
         <v>-138</v>
       </c>
       <c r="B164">
-        <v>389.342</v>
+        <v>389.343</v>
       </c>
       <c r="C164">
         <v>399.723</v>
@@ -40209,7 +40209,7 @@
         <v>348.13</v>
       </c>
       <c r="F168">
-        <v>1.697</v>
+        <v>1.698</v>
       </c>
       <c r="G168">
         <v>1.715</v>
@@ -40226,7 +40226,7 @@
         <v>-133</v>
       </c>
       <c r="B169">
-        <v>360.339</v>
+        <v>360.34</v>
       </c>
       <c r="C169">
         <v>370.366</v>
@@ -40284,7 +40284,7 @@
         <v>-131</v>
       </c>
       <c r="B171">
-        <v>352.865</v>
+        <v>352.866</v>
       </c>
       <c r="C171">
         <v>362.815</v>
@@ -40313,7 +40313,7 @@
         <v>-130</v>
       </c>
       <c r="B172">
-        <v>349.967</v>
+        <v>349.968</v>
       </c>
       <c r="C172">
         <v>359.888</v>
@@ -40342,7 +40342,7 @@
         <v>-129</v>
       </c>
       <c r="B173">
-        <v>347.616</v>
+        <v>347.618</v>
       </c>
       <c r="C173">
         <v>357.514</v>
@@ -40371,7 +40371,7 @@
         <v>-128</v>
       </c>
       <c r="B174">
-        <v>345.807</v>
+        <v>345.808</v>
       </c>
       <c r="C174">
         <v>355.687</v>
@@ -40516,7 +40516,7 @@
         <v>-123</v>
       </c>
       <c r="B179">
-        <v>344.744</v>
+        <v>344.745</v>
       </c>
       <c r="C179">
         <v>354.603</v>
@@ -40545,7 +40545,7 @@
         <v>-122</v>
       </c>
       <c r="B180">
-        <v>346.123</v>
+        <v>346.125</v>
       </c>
       <c r="C180">
         <v>355.991</v>
@@ -40574,7 +40574,7 @@
         <v>-121</v>
       </c>
       <c r="B181">
-        <v>348.039</v>
+        <v>348.04</v>
       </c>
       <c r="C181">
         <v>357.921</v>
@@ -40922,7 +40922,7 @@
         <v>-109</v>
       </c>
       <c r="B193">
-        <v>416.153</v>
+        <v>416.155</v>
       </c>
       <c r="C193">
         <v>426.878</v>
@@ -40951,7 +40951,7 @@
         <v>-108</v>
       </c>
       <c r="B194">
-        <v>426.002</v>
+        <v>426.004</v>
       </c>
       <c r="C194">
         <v>436.89</v>
@@ -40980,7 +40980,7 @@
         <v>-107</v>
       </c>
       <c r="B195">
-        <v>436.568</v>
+        <v>436.569</v>
       </c>
       <c r="C195">
         <v>447.64</v>
@@ -41038,7 +41038,7 @@
         <v>-105</v>
       </c>
       <c r="B197">
-        <v>459.902</v>
+        <v>459.903</v>
       </c>
       <c r="C197">
         <v>471.418</v>
@@ -41067,7 +41067,7 @@
         <v>-104</v>
       </c>
       <c r="B198">
-        <v>472.689</v>
+        <v>472.691</v>
       </c>
       <c r="C198">
         <v>484.47</v>
@@ -41096,7 +41096,7 @@
         <v>-103</v>
       </c>
       <c r="B199">
-        <v>486.231</v>
+        <v>486.232</v>
       </c>
       <c r="C199">
         <v>498.306</v>
@@ -41154,7 +41154,7 @@
         <v>-101</v>
       </c>
       <c r="B201">
-        <v>515.55</v>
+        <v>515.551</v>
       </c>
       <c r="C201">
         <v>528.321</v>
@@ -41183,7 +41183,7 @@
         <v>-100</v>
       </c>
       <c r="B202">
-        <v>531.297</v>
+        <v>531.298</v>
       </c>
       <c r="C202">
         <v>544.473</v>
@@ -41241,7 +41241,7 @@
         <v>-98</v>
       </c>
       <c r="B204">
-        <v>564.793</v>
+        <v>564.795</v>
       </c>
       <c r="C204">
         <v>578.913</v>
@@ -41299,7 +41299,7 @@
         <v>-96</v>
       </c>
       <c r="B206">
-        <v>600.561</v>
+        <v>600.562</v>
       </c>
       <c r="C206">
         <v>615.821</v>
@@ -41328,7 +41328,7 @@
         <v>-95</v>
       </c>
       <c r="B207">
-        <v>619.076</v>
+        <v>619.078</v>
       </c>
       <c r="C207">
         <v>634.988</v>
@@ -41386,7 +41386,7 @@
         <v>-93</v>
       </c>
       <c r="B209">
-        <v>656.751</v>
+        <v>656.753</v>
       </c>
       <c r="C209">
         <v>674.148</v>
@@ -41444,7 +41444,7 @@
         <v>-91</v>
       </c>
       <c r="B211">
-        <v>694.218</v>
+        <v>694.219</v>
       </c>
       <c r="C211">
         <v>713.356</v>
@@ -41473,7 +41473,7 @@
         <v>-90</v>
       </c>
       <c r="B212">
-        <v>712.405</v>
+        <v>712.406</v>
       </c>
       <c r="C212">
         <v>732.519</v>
@@ -41531,7 +41531,7 @@
         <v>-88</v>
       </c>
       <c r="B214">
-        <v>746.667</v>
+        <v>746.67</v>
       </c>
       <c r="C214">
         <v>768.955</v>
@@ -41589,7 +41589,7 @@
         <v>-86</v>
       </c>
       <c r="B216">
-        <v>776.796</v>
+        <v>776.797</v>
       </c>
       <c r="C216">
         <v>801.566</v>
@@ -41618,7 +41618,7 @@
         <v>-85</v>
       </c>
       <c r="B217">
-        <v>789.876</v>
+        <v>789.878</v>
       </c>
       <c r="C217">
         <v>816.014</v>
@@ -41676,7 +41676,7 @@
         <v>-83</v>
       </c>
       <c r="B219">
-        <v>811.483</v>
+        <v>811.485</v>
       </c>
       <c r="C219">
         <v>840.628</v>
@@ -41705,7 +41705,7 @@
         <v>-82</v>
       </c>
       <c r="B220">
-        <v>819.893</v>
+        <v>819.895</v>
       </c>
       <c r="C220">
         <v>850.689</v>
@@ -41763,7 +41763,7 @@
         <v>-80</v>
       </c>
       <c r="B222">
-        <v>831.961</v>
+        <v>831.962</v>
       </c>
       <c r="C222">
         <v>866.397</v>
@@ -41792,7 +41792,7 @@
         <v>-79</v>
       </c>
       <c r="B223">
-        <v>835.747</v>
+        <v>835.75</v>
       </c>
       <c r="C223">
         <v>872.196</v>
@@ -41821,7 +41821,7 @@
         <v>-78</v>
       </c>
       <c r="B224">
-        <v>838.181</v>
+        <v>838.182</v>
       </c>
       <c r="C224">
         <v>876.784</v>
@@ -41879,7 +41879,7 @@
         <v>-76</v>
       </c>
       <c r="B226">
-        <v>839.518</v>
+        <v>839.519</v>
       </c>
       <c r="C226">
         <v>882.935</v>
@@ -41908,7 +41908,7 @@
         <v>-75</v>
       </c>
       <c r="B227">
-        <v>838.719</v>
+        <v>838.72</v>
       </c>
       <c r="C227">
         <v>884.834</v>
@@ -41937,7 +41937,7 @@
         <v>-74</v>
       </c>
       <c r="B228">
-        <v>837.139</v>
+        <v>837.142</v>
       </c>
       <c r="C228">
         <v>886.175</v>
@@ -41966,7 +41966,7 @@
         <v>-73</v>
       </c>
       <c r="B229">
-        <v>834.92</v>
+        <v>834.924</v>
       </c>
       <c r="C229">
         <v>887.126</v>
@@ -41995,7 +41995,7 @@
         <v>-72</v>
       </c>
       <c r="B230">
-        <v>832.191</v>
+        <v>832.194</v>
       </c>
       <c r="C230">
         <v>887.84</v>
@@ -42024,7 +42024,7 @@
         <v>-71</v>
       </c>
       <c r="B231">
-        <v>829.061</v>
+        <v>829.064</v>
       </c>
       <c r="C231">
         <v>888.458</v>
@@ -42053,7 +42053,7 @@
         <v>-70</v>
       </c>
       <c r="B232">
-        <v>825.625</v>
+        <v>825.628</v>
       </c>
       <c r="C232">
         <v>889.108</v>
@@ -42082,7 +42082,7 @@
         <v>-69</v>
       </c>
       <c r="B233">
-        <v>821.96</v>
+        <v>821.961</v>
       </c>
       <c r="C233">
         <v>889.896</v>
@@ -42111,7 +42111,7 @@
         <v>-68</v>
       </c>
       <c r="B234">
-        <v>818.116</v>
+        <v>818.117</v>
       </c>
       <c r="C234">
         <v>890.911</v>
@@ -42123,7 +42123,7 @@
         <v>802.598</v>
       </c>
       <c r="F234">
-        <v>3.861</v>
+        <v>3.862</v>
       </c>
       <c r="G234">
         <v>4.062</v>
@@ -42169,7 +42169,7 @@
         <v>-66</v>
       </c>
       <c r="B236">
-        <v>810.009</v>
+        <v>810.011</v>
       </c>
       <c r="C236">
         <v>893.886</v>
@@ -42198,7 +42198,7 @@
         <v>-65</v>
       </c>
       <c r="B237">
-        <v>805.756</v>
+        <v>805.757</v>
       </c>
       <c r="C237">
         <v>895.928</v>
@@ -42227,7 +42227,7 @@
         <v>-64</v>
       </c>
       <c r="B238">
-        <v>801.34</v>
+        <v>801.341</v>
       </c>
       <c r="C238">
         <v>898.36</v>
@@ -42314,7 +42314,7 @@
         <v>-61</v>
       </c>
       <c r="B241">
-        <v>786.617</v>
+        <v>786.618</v>
       </c>
       <c r="C241">
         <v>907.825</v>
@@ -42343,7 +42343,7 @@
         <v>-60</v>
       </c>
       <c r="B242">
-        <v>780.979</v>
+        <v>780.98</v>
       </c>
       <c r="C242">
         <v>911.546</v>
@@ -42488,7 +42488,7 @@
         <v>-55</v>
       </c>
       <c r="B247">
-        <v>743.518</v>
+        <v>743.519</v>
       </c>
       <c r="C247">
         <v>930.44</v>
@@ -42517,7 +42517,7 @@
         <v>-54</v>
       </c>
       <c r="B248">
-        <v>733.813</v>
+        <v>733.814</v>
       </c>
       <c r="C248">
         <v>933.483</v>
@@ -42604,7 +42604,7 @@
         <v>-51</v>
       </c>
       <c r="B251">
-        <v>703.22</v>
+        <v>703.221</v>
       </c>
       <c r="C251">
         <v>939.224</v>
@@ -42836,7 +42836,7 @@
         <v>-43</v>
       </c>
       <c r="B259">
-        <v>751.078</v>
+        <v>751.079</v>
       </c>
       <c r="C259">
         <v>926.778</v>
@@ -42865,7 +42865,7 @@
         <v>-42</v>
       </c>
       <c r="B260">
-        <v>760.227</v>
+        <v>760.228</v>
       </c>
       <c r="C260">
         <v>923.587</v>
@@ -42923,7 +42923,7 @@
         <v>-40</v>
       </c>
       <c r="B262">
-        <v>776.931</v>
+        <v>776.932</v>
       </c>
       <c r="C262">
         <v>917.371</v>
@@ -42952,7 +42952,7 @@
         <v>-39</v>
       </c>
       <c r="B263">
-        <v>784.603</v>
+        <v>784.604</v>
       </c>
       <c r="C263">
         <v>914.552</v>
@@ -43039,7 +43039,7 @@
         <v>-36</v>
       </c>
       <c r="B266">
-        <v>805.702</v>
+        <v>805.703</v>
       </c>
       <c r="C266">
         <v>908.146</v>
@@ -43068,7 +43068,7 @@
         <v>-35</v>
       </c>
       <c r="B267">
-        <v>812.284</v>
+        <v>812.286</v>
       </c>
       <c r="C267">
         <v>906.831</v>
@@ -43155,7 +43155,7 @@
         <v>-32</v>
       </c>
       <c r="B270">
-        <v>831.091</v>
+        <v>831.092</v>
       </c>
       <c r="C270">
         <v>905.338</v>
@@ -43184,7 +43184,7 @@
         <v>-31</v>
       </c>
       <c r="B271">
-        <v>837.023</v>
+        <v>837.025</v>
       </c>
       <c r="C271">
         <v>905.518</v>
@@ -43213,7 +43213,7 @@
         <v>-30</v>
       </c>
       <c r="B272">
-        <v>842.727</v>
+        <v>842.729</v>
       </c>
       <c r="C272">
         <v>905.914</v>
@@ -43242,7 +43242,7 @@
         <v>-29</v>
       </c>
       <c r="B273">
-        <v>848.134</v>
+        <v>848.136</v>
       </c>
       <c r="C273">
         <v>906.421</v>
@@ -43271,7 +43271,7 @@
         <v>-28</v>
       </c>
       <c r="B274">
-        <v>853.155</v>
+        <v>853.156</v>
       </c>
       <c r="C274">
         <v>906.917</v>
@@ -43358,7 +43358,7 @@
         <v>-25</v>
       </c>
       <c r="B277">
-        <v>864.694</v>
+        <v>864.697</v>
       </c>
       <c r="C277">
         <v>906.819</v>
@@ -43387,7 +43387,7 @@
         <v>-24</v>
       </c>
       <c r="B278">
-        <v>866.883</v>
+        <v>866.884</v>
       </c>
       <c r="C278">
         <v>905.68</v>
@@ -43445,7 +43445,7 @@
         <v>-22</v>
       </c>
       <c r="B280">
-        <v>867.776</v>
+        <v>867.778</v>
       </c>
       <c r="C280">
         <v>900.607</v>
@@ -43503,7 +43503,7 @@
         <v>-20</v>
       </c>
       <c r="B282">
-        <v>862.922</v>
+        <v>862.924</v>
       </c>
       <c r="C282">
         <v>890.578</v>
@@ -43532,7 +43532,7 @@
         <v>-19</v>
       </c>
       <c r="B283">
-        <v>857.978</v>
+        <v>857.979</v>
       </c>
       <c r="C283">
         <v>883.304</v>
@@ -43590,7 +43590,7 @@
         <v>-17</v>
       </c>
       <c r="B285">
-        <v>842.564</v>
+        <v>842.567</v>
       </c>
       <c r="C285">
         <v>863.7</v>
@@ -43619,7 +43619,7 @@
         <v>-16</v>
       </c>
       <c r="B286">
-        <v>832.028</v>
+        <v>832.029</v>
       </c>
       <c r="C286">
         <v>851.279</v>
@@ -43677,7 +43677,7 @@
         <v>-14</v>
       </c>
       <c r="B288">
-        <v>805.458</v>
+        <v>805.459</v>
       </c>
       <c r="C288">
         <v>821.336</v>
@@ -43706,7 +43706,7 @@
         <v>-13</v>
       </c>
       <c r="B289">
-        <v>789.634</v>
+        <v>789.636</v>
       </c>
       <c r="C289">
         <v>804.012</v>
@@ -43735,7 +43735,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>772.325</v>
+        <v>772.328</v>
       </c>
       <c r="C290">
         <v>785.319</v>
@@ -43764,7 +43764,7 @@
         <v>-11</v>
       </c>
       <c r="B291">
-        <v>753.73</v>
+        <v>753.732</v>
       </c>
       <c r="C291">
         <v>765.448</v>
@@ -43793,7 +43793,7 @@
         <v>-10</v>
       </c>
       <c r="B292">
-        <v>734.06</v>
+        <v>734.062</v>
       </c>
       <c r="C292">
         <v>744.609</v>
@@ -43822,7 +43822,7 @@
         <v>-9</v>
       </c>
       <c r="B293">
-        <v>713.542</v>
+        <v>713.543</v>
       </c>
       <c r="C293">
         <v>723.021</v>
@@ -43851,7 +43851,7 @@
         <v>-8</v>
       </c>
       <c r="B294">
-        <v>692.399</v>
+        <v>692.4</v>
       </c>
       <c r="C294">
         <v>700.904</v>
@@ -43880,7 +43880,7 @@
         <v>-7</v>
       </c>
       <c r="B295">
-        <v>670.85</v>
+        <v>670.851</v>
       </c>
       <c r="C295">
         <v>678.47</v>
@@ -43909,7 +43909,7 @@
         <v>-6</v>
       </c>
       <c r="B296">
-        <v>649.096</v>
+        <v>649.098</v>
       </c>
       <c r="C296">
         <v>655.914</v>
@@ -43938,7 +43938,7 @@
         <v>-5</v>
       </c>
       <c r="B297">
-        <v>627.322</v>
+        <v>627.325</v>
       </c>
       <c r="C297">
         <v>633.414</v>
@@ -43967,7 +43967,7 @@
         <v>-4</v>
       </c>
       <c r="B298">
-        <v>605.689</v>
+        <v>605.691</v>
       </c>
       <c r="C298">
         <v>611.126</v>
@@ -44083,7 +44083,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>522.96</v>
+        <v>522.961</v>
       </c>
       <c r="C302">
         <v>526.37</v>
@@ -44112,7 +44112,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>503.638</v>
+        <v>503.64</v>
       </c>
       <c r="C303">
         <v>506.665</v>
@@ -44199,7 +44199,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>449.608</v>
+        <v>449.61</v>
       </c>
       <c r="C306">
         <v>451.708</v>
@@ -44257,7 +44257,7 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>416.965</v>
+        <v>416.966</v>
       </c>
       <c r="C308">
         <v>418.597</v>
@@ -44286,7 +44286,7 @@
         <v>7</v>
       </c>
       <c r="B309">
-        <v>401.64</v>
+        <v>401.642</v>
       </c>
       <c r="C309">
         <v>403.076</v>
@@ -44344,7 +44344,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>372.909</v>
+        <v>372.91</v>
       </c>
       <c r="C311">
         <v>374.01</v>
@@ -44402,7 +44402,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>346.593</v>
+        <v>346.594</v>
       </c>
       <c r="C313">
         <v>347.426</v>
@@ -44460,7 +44460,7 @@
         <v>13</v>
       </c>
       <c r="B315">
-        <v>322.502</v>
+        <v>322.503</v>
       </c>
       <c r="C315">
         <v>323.121</v>
@@ -44518,7 +44518,7 @@
         <v>15</v>
       </c>
       <c r="B317">
-        <v>300.437</v>
+        <v>300.438</v>
       </c>
       <c r="C317">
         <v>300.886</v>
@@ -44576,7 +44576,7 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>280.203</v>
+        <v>280.204</v>
       </c>
       <c r="C319">
         <v>280.517</v>
@@ -44663,7 +44663,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>252.884</v>
+        <v>252.885</v>
       </c>
       <c r="C322">
         <v>253.05</v>
@@ -44750,7 +44750,7 @@
         <v>23</v>
       </c>
       <c r="B325">
-        <v>228.702</v>
+        <v>228.703</v>
       </c>
       <c r="C325">
         <v>228.772</v>
@@ -44837,7 +44837,7 @@
         <v>26</v>
       </c>
       <c r="B328">
-        <v>207.164</v>
+        <v>207.165</v>
       </c>
       <c r="C328">
         <v>207.18</v>
@@ -44866,7 +44866,7 @@
         <v>27</v>
       </c>
       <c r="B329">
-        <v>200.497</v>
+        <v>200.498</v>
       </c>
       <c r="C329">
         <v>200.504</v>
@@ -44982,7 +44982,7 @@
         <v>31</v>
       </c>
       <c r="B333">
-        <v>176.019</v>
+        <v>176.02</v>
       </c>
       <c r="C333">
         <v>176.03</v>
@@ -45011,7 +45011,7 @@
         <v>32</v>
       </c>
       <c r="B334">
-        <v>170.386</v>
+        <v>170.387</v>
       </c>
       <c r="C334">
         <v>170.408</v>
@@ -45040,7 +45040,7 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>164.925</v>
+        <v>164.926</v>
       </c>
       <c r="C335">
         <v>164.962</v>
@@ -45127,7 +45127,7 @@
         <v>36</v>
       </c>
       <c r="B338">
-        <v>149.475</v>
+        <v>149.476</v>
       </c>
       <c r="C338">
         <v>149.587</v>
@@ -45214,7 +45214,7 @@
         <v>39</v>
       </c>
       <c r="B341">
-        <v>135.236</v>
+        <v>135.237</v>
       </c>
       <c r="C341">
         <v>135.472</v>
@@ -45475,7 +45475,7 @@
         <v>48</v>
       </c>
       <c r="B350">
-        <v>97.764</v>
+        <v>97.765</v>
       </c>
       <c r="C350">
         <v>98.844</v>
@@ -45504,7 +45504,7 @@
         <v>49</v>
       </c>
       <c r="B351">
-        <v>93.949</v>
+        <v>93.95</v>
       </c>
       <c r="C351">
         <v>95.192</v>
@@ -45562,7 +45562,7 @@
         <v>51</v>
       </c>
       <c r="B353">
-        <v>86.463</v>
+        <v>86.464</v>
       </c>
       <c r="C353">
         <v>88.097</v>
@@ -45823,7 +45823,7 @@
         <v>60</v>
       </c>
       <c r="B362">
-        <v>54.235</v>
+        <v>54.236</v>
       </c>
       <c r="C362">
         <v>59.583</v>
@@ -46490,7 +46490,7 @@
         <v>83</v>
       </c>
       <c r="B385">
-        <v>61.061</v>
+        <v>61.062</v>
       </c>
       <c r="C385">
         <v>70.952</v>
@@ -46867,7 +46867,7 @@
         <v>96</v>
       </c>
       <c r="B398">
-        <v>131.878</v>
+        <v>131.879</v>
       </c>
       <c r="C398">
         <v>154.631</v>
@@ -47012,7 +47012,7 @@
         <v>101</v>
       </c>
       <c r="B403">
-        <v>177.804</v>
+        <v>177.805</v>
       </c>
       <c r="C403">
         <v>201.663</v>
@@ -47041,7 +47041,7 @@
         <v>102</v>
       </c>
       <c r="B404">
-        <v>188.336</v>
+        <v>188.337</v>
       </c>
       <c r="C404">
         <v>212.323</v>
@@ -47070,7 +47070,7 @@
         <v>103</v>
       </c>
       <c r="B405">
-        <v>199.359</v>
+        <v>199.36</v>
       </c>
       <c r="C405">
         <v>223.441</v>
@@ -47186,7 +47186,7 @@
         <v>107</v>
       </c>
       <c r="B409">
-        <v>248.738</v>
+        <v>248.739</v>
       </c>
       <c r="C409">
         <v>272.836</v>
@@ -47215,7 +47215,7 @@
         <v>108</v>
       </c>
       <c r="B410">
-        <v>262.492</v>
+        <v>262.493</v>
       </c>
       <c r="C410">
         <v>286.489</v>
@@ -47244,7 +47244,7 @@
         <v>109</v>
       </c>
       <c r="B411">
-        <v>276.837</v>
+        <v>276.838</v>
       </c>
       <c r="C411">
         <v>300.686</v>
@@ -47273,7 +47273,7 @@
         <v>110</v>
       </c>
       <c r="B412">
-        <v>291.78</v>
+        <v>291.782</v>
       </c>
       <c r="C412">
         <v>315.432</v>
@@ -47360,7 +47360,7 @@
         <v>113</v>
       </c>
       <c r="B415">
-        <v>340.197</v>
+        <v>340.198</v>
       </c>
       <c r="C415">
         <v>362.929</v>
@@ -47447,7 +47447,7 @@
         <v>116</v>
       </c>
       <c r="B418">
-        <v>393.609</v>
+        <v>393.61</v>
       </c>
       <c r="C418">
         <v>414.889</v>
@@ -47476,7 +47476,7 @@
         <v>117</v>
       </c>
       <c r="B419">
-        <v>412.328</v>
+        <v>412.329</v>
       </c>
       <c r="C419">
         <v>433</v>
@@ -47534,7 +47534,7 @@
         <v>119</v>
       </c>
       <c r="B421">
-        <v>450.677</v>
+        <v>450.678</v>
       </c>
       <c r="C421">
         <v>469.955</v>
@@ -47592,7 +47592,7 @@
         <v>121</v>
       </c>
       <c r="B423">
-        <v>489.487</v>
+        <v>489.489</v>
       </c>
       <c r="C423">
         <v>507.147</v>
@@ -47633,7 +47633,7 @@
         <v>139.311</v>
       </c>
       <c r="F424">
-        <v>6.182</v>
+        <v>6.183</v>
       </c>
       <c r="G424">
         <v>6.185</v>
@@ -47679,7 +47679,7 @@
         <v>124</v>
       </c>
       <c r="B426">
-        <v>545.984</v>
+        <v>545.985</v>
       </c>
       <c r="C426">
         <v>560.879</v>
@@ -47708,7 +47708,7 @@
         <v>125</v>
       </c>
       <c r="B427">
-        <v>563.668</v>
+        <v>563.669</v>
       </c>
       <c r="C427">
         <v>577.581</v>
@@ -47766,7 +47766,7 @@
         <v>127</v>
       </c>
       <c r="B429">
-        <v>596.256</v>
+        <v>596.258</v>
       </c>
       <c r="C429">
         <v>608.174</v>
@@ -47795,7 +47795,7 @@
         <v>128</v>
       </c>
       <c r="B430">
-        <v>610.855</v>
+        <v>610.856</v>
       </c>
       <c r="C430">
         <v>621.778</v>
@@ -47882,7 +47882,7 @@
         <v>131</v>
       </c>
       <c r="B433">
-        <v>646.586</v>
+        <v>646.588</v>
       </c>
       <c r="C433">
         <v>654.674</v>
@@ -47911,7 +47911,7 @@
         <v>132</v>
       </c>
       <c r="B434">
-        <v>655.667</v>
+        <v>655.669</v>
       </c>
       <c r="C434">
         <v>662.891</v>
@@ -47940,7 +47940,7 @@
         <v>133</v>
       </c>
       <c r="B435">
-        <v>663.364</v>
+        <v>663.365</v>
       </c>
       <c r="C435">
         <v>669.775</v>
@@ -47998,7 +47998,7 @@
         <v>135</v>
       </c>
       <c r="B437">
-        <v>674.928</v>
+        <v>674.929</v>
       </c>
       <c r="C437">
         <v>679.893</v>
@@ -48056,7 +48056,7 @@
         <v>137</v>
       </c>
       <c r="B439">
-        <v>682.211</v>
+        <v>682.212</v>
       </c>
       <c r="C439">
         <v>685.983</v>
@@ -48114,7 +48114,7 @@
         <v>139</v>
       </c>
       <c r="B441">
-        <v>686.435</v>
+        <v>686.438</v>
       </c>
       <c r="C441">
         <v>689.266</v>
@@ -48230,7 +48230,7 @@
         <v>143</v>
       </c>
       <c r="B445">
-        <v>690.893</v>
+        <v>690.895</v>
       </c>
       <c r="C445">
         <v>692.491</v>
@@ -48259,7 +48259,7 @@
         <v>144</v>
       </c>
       <c r="B446">
-        <v>692.036</v>
+        <v>692.038</v>
       </c>
       <c r="C446">
         <v>693.439</v>
@@ -48288,7 +48288,7 @@
         <v>145</v>
       </c>
       <c r="B447">
-        <v>693.444</v>
+        <v>693.446</v>
       </c>
       <c r="C447">
         <v>694.688</v>
@@ -48317,7 +48317,7 @@
         <v>146</v>
       </c>
       <c r="B448">
-        <v>695.219</v>
+        <v>695.222</v>
       </c>
       <c r="C448">
         <v>696.338</v>
@@ -48346,7 +48346,7 @@
         <v>147</v>
       </c>
       <c r="B449">
-        <v>697.454</v>
+        <v>697.456</v>
       </c>
       <c r="C449">
         <v>698.476</v>
@@ -48375,7 +48375,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>700.227</v>
+        <v>700.228</v>
       </c>
       <c r="C450">
         <v>701.179</v>
@@ -48491,7 +48491,7 @@
         <v>152</v>
       </c>
       <c r="B454">
-        <v>717.814</v>
+        <v>717.815</v>
       </c>
       <c r="C454">
         <v>718.731</v>
@@ -48520,7 +48520,7 @@
         <v>153</v>
       </c>
       <c r="B455">
-        <v>723.995</v>
+        <v>723.997</v>
       </c>
       <c r="C455">
         <v>724.966</v>
@@ -48549,7 +48549,7 @@
         <v>154</v>
       </c>
       <c r="B456">
-        <v>730.903</v>
+        <v>730.905</v>
       </c>
       <c r="C456">
         <v>731.954</v>
@@ -48578,7 +48578,7 @@
         <v>155</v>
       </c>
       <c r="B457">
-        <v>738.509</v>
+        <v>738.51</v>
       </c>
       <c r="C457">
         <v>739.672</v>
@@ -48665,7 +48665,7 @@
         <v>158</v>
       </c>
       <c r="B460">
-        <v>764.856</v>
+        <v>764.857</v>
       </c>
       <c r="C460">
         <v>766.597</v>
@@ -48694,7 +48694,7 @@
         <v>159</v>
       </c>
       <c r="B461">
-        <v>774.438</v>
+        <v>774.44</v>
       </c>
       <c r="C461">
         <v>776.474</v>
@@ -48723,7 +48723,7 @@
         <v>160</v>
       </c>
       <c r="B462">
-        <v>784.134</v>
+        <v>784.137</v>
       </c>
       <c r="C462">
         <v>786.53</v>
@@ -48752,7 +48752,7 @@
         <v>161</v>
       </c>
       <c r="B463">
-        <v>793.705</v>
+        <v>793.708</v>
       </c>
       <c r="C463">
         <v>796.531</v>
@@ -48781,7 +48781,7 @@
         <v>162</v>
       </c>
       <c r="B464">
-        <v>802.859</v>
+        <v>802.862</v>
       </c>
       <c r="C464">
         <v>806.195</v>
@@ -48810,7 +48810,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>811.252</v>
+        <v>811.255</v>
       </c>
       <c r="C465">
         <v>815.187</v>
@@ -48839,7 +48839,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>818.496</v>
+        <v>818.499</v>
       </c>
       <c r="C466">
         <v>823.123</v>
@@ -48868,7 +48868,7 @@
         <v>165</v>
       </c>
       <c r="B467">
-        <v>824.165</v>
+        <v>824.166</v>
       </c>
       <c r="C467">
         <v>829.581</v>
@@ -48955,7 +48955,7 @@
         <v>168</v>
       </c>
       <c r="B470">
-        <v>827.323</v>
+        <v>827.326</v>
       </c>
       <c r="C470">
         <v>835.698</v>
@@ -48984,7 +48984,7 @@
         <v>169</v>
       </c>
       <c r="B471">
-        <v>822.469</v>
+        <v>822.47</v>
       </c>
       <c r="C471">
         <v>832.001</v>
@@ -49042,7 +49042,7 @@
         <v>171</v>
       </c>
       <c r="B473">
-        <v>802.479</v>
+        <v>802.481</v>
       </c>
       <c r="C473">
         <v>814.505</v>
@@ -49071,7 +49071,7 @@
         <v>172</v>
       </c>
       <c r="B474">
-        <v>787.339</v>
+        <v>787.34</v>
       </c>
       <c r="C474">
         <v>800.659</v>
@@ -49129,7 +49129,7 @@
         <v>174</v>
       </c>
       <c r="B476">
-        <v>747.842</v>
+        <v>747.845</v>
       </c>
       <c r="C476">
         <v>763.738</v>
@@ -49158,7 +49158,7 @@
         <v>175</v>
       </c>
       <c r="B477">
-        <v>724.283</v>
+        <v>724.285</v>
       </c>
       <c r="C477">
         <v>741.415</v>
@@ -49216,7 +49216,7 @@
         <v>177</v>
       </c>
       <c r="B479">
-        <v>672.021</v>
+        <v>672.022</v>
       </c>
       <c r="C479">
         <v>691.435</v>
@@ -49245,7 +49245,7 @@
         <v>178</v>
       </c>
       <c r="B480">
-        <v>644.346</v>
+        <v>644.347</v>
       </c>
       <c r="C480">
         <v>664.78</v>
@@ -49274,7 +49274,7 @@
         <v>179</v>
       </c>
       <c r="B481">
-        <v>616.272</v>
+        <v>616.273</v>
       </c>
       <c r="C481">
         <v>637.634</v>
@@ -49303,7 +49303,7 @@
         <v>180</v>
       </c>
       <c r="B482">
-        <v>588.2</v>
+        <v>588.202</v>
       </c>
       <c r="C482">
         <v>610.394</v>
@@ -49332,7 +49332,7 @@
         <v>181</v>
       </c>
       <c r="B483">
-        <v>560.469</v>
+        <v>560.47</v>
       </c>
       <c r="C483">
         <v>583.392</v>
@@ -49390,7 +49390,7 @@
         <v>183</v>
       </c>
       <c r="B485">
-        <v>507.015</v>
+        <v>507.016</v>
       </c>
       <c r="C485">
         <v>531.102</v>
@@ -49448,7 +49448,7 @@
         <v>185</v>
       </c>
       <c r="B487">
-        <v>457.309</v>
+        <v>457.31</v>
       </c>
       <c r="C487">
         <v>482.177</v>
@@ -49506,7 +49506,7 @@
         <v>187</v>
       </c>
       <c r="B489">
-        <v>411.979</v>
+        <v>411.981</v>
       </c>
       <c r="C489">
         <v>437.278</v>
@@ -49593,7 +49593,7 @@
         <v>190</v>
       </c>
       <c r="B492">
-        <v>352.376</v>
+        <v>352.377</v>
       </c>
       <c r="C492">
         <v>377.744</v>
@@ -49622,7 +49622,7 @@
         <v>191</v>
       </c>
       <c r="B493">
-        <v>334.647</v>
+        <v>334.648</v>
       </c>
       <c r="C493">
         <v>359.907</v>
@@ -49651,7 +49651,7 @@
         <v>192</v>
       </c>
       <c r="B494">
-        <v>317.921</v>
+        <v>317.922</v>
       </c>
       <c r="C494">
         <v>343.013</v>
@@ -49709,7 +49709,7 @@
         <v>194</v>
       </c>
       <c r="B496">
-        <v>287.282</v>
+        <v>287.283</v>
       </c>
       <c r="C496">
         <v>311.889</v>
@@ -49854,7 +49854,7 @@
         <v>199</v>
       </c>
       <c r="B501">
-        <v>224.84</v>
+        <v>224.841</v>
       </c>
       <c r="C501">
         <v>247.562</v>
@@ -49883,7 +49883,7 @@
         <v>200</v>
       </c>
       <c r="B502">
-        <v>214.412</v>
+        <v>214.413</v>
       </c>
       <c r="C502">
         <v>236.676</v>
@@ -49912,7 +49912,7 @@
         <v>201</v>
       </c>
       <c r="B503">
-        <v>204.574</v>
+        <v>204.575</v>
       </c>
       <c r="C503">
         <v>226.362</v>
@@ -49999,7 +49999,7 @@
         <v>204</v>
       </c>
       <c r="B506">
-        <v>178.243</v>
+        <v>178.244</v>
       </c>
       <c r="C506">
         <v>198.525</v>
@@ -50260,7 +50260,7 @@
         <v>213</v>
       </c>
       <c r="B515">
-        <v>121.168</v>
+        <v>121.169</v>
       </c>
       <c r="C515">
         <v>136.779</v>
@@ -50550,7 +50550,7 @@
         <v>223</v>
       </c>
       <c r="B525">
-        <v>82.546</v>
+        <v>82.547</v>
       </c>
       <c r="C525">
         <v>93.596</v>
@@ -51536,7 +51536,7 @@
         <v>257</v>
       </c>
       <c r="B559">
-        <v>30.738</v>
+        <v>30.739</v>
       </c>
       <c r="C559">
         <v>33.258</v>
@@ -52290,7 +52290,7 @@
         <v>283</v>
       </c>
       <c r="B585">
-        <v>19.198</v>
+        <v>19.199</v>
       </c>
       <c r="C585">
         <v>19.769</v>
@@ -52783,7 +52783,7 @@
         <v>300</v>
       </c>
       <c r="B602">
-        <v>15.562</v>
+        <v>15.563</v>
       </c>
       <c r="C602">
         <v>15.746</v>
@@ -52854,7 +52854,7 @@
         <v>-300</v>
       </c>
       <c r="B2">
-        <v>-0.000754574608568025</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -52912,7 +52912,7 @@
         <v>-298</v>
       </c>
       <c r="B4">
-        <v>-0.000724931856408959</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -53028,7 +53028,7 @@
         <v>-294</v>
       </c>
       <c r="B8">
-        <v>-0.000667120308479616</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -53434,7 +53434,7 @@
         <v>-280</v>
       </c>
       <c r="B22">
-        <v>-0.000481042129658341</v>
+        <v>1.36719738653012e-14</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -53492,7 +53492,7 @@
         <v>-278</v>
       </c>
       <c r="B24">
-        <v>-0.000456643941022049</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -53550,7 +53550,7 @@
         <v>-276</v>
       </c>
       <c r="B26">
-        <v>-0.00043282548476661</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -53637,7 +53637,7 @@
         <v>-273</v>
       </c>
       <c r="B29">
-        <v>-0.000398219163912263</v>
+        <v>-1.13180242954153e-14</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -53695,7 +53695,7 @@
         <v>-271</v>
       </c>
       <c r="B31">
-        <v>-0.000375921477534255</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -53753,7 +53753,7 @@
         <v>-269</v>
       </c>
       <c r="B33">
-        <v>-0.000354263203381213</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -53765,7 +53765,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.0499500499500445</v>
       </c>
       <c r="G33">
         <v>0.0499500499500445</v>
@@ -53811,7 +53811,7 @@
         <v>-267</v>
       </c>
       <c r="B35">
-        <v>-0.000333267790659955</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -53840,7 +53840,7 @@
         <v>-266</v>
       </c>
       <c r="B36">
-        <v>-0.000323026630307765</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -53898,7 +53898,7 @@
         <v>-264</v>
       </c>
       <c r="B38">
-        <v>-0.000303073468049448</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-1.71694517102899e-14</v>
@@ -53956,7 +53956,7 @@
         <v>-262</v>
       </c>
       <c r="B40">
-        <v>-0.000283851409457461</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1.60739910135869e-14</v>
@@ -53985,7 +53985,7 @@
         <v>-261</v>
       </c>
       <c r="B41">
-        <v>-0.000274525414183727</v>
+        <v>1.56049202672794e-14</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -54043,7 +54043,7 @@
         <v>-259</v>
       </c>
       <c r="B43">
-        <v>-0.000256468126149797</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -54130,7 +54130,7 @@
         <v>-256</v>
       </c>
       <c r="B46">
-        <v>-0.000230947948958932</v>
+        <v>0.000230946882211629</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -54159,7 +54159,7 @@
         <v>-255</v>
       </c>
       <c r="B47">
-        <v>-0.000222882946328974</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -54246,7 +54246,7 @@
         <v>-252</v>
       </c>
       <c r="B50">
-        <v>-0.000400223324617046</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -54275,7 +54275,7 @@
         <v>-251</v>
       </c>
       <c r="B51">
-        <v>-0.000193021128110061</v>
+        <v>-2.19439193099153e-14</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -54420,7 +54420,7 @@
         <v>-246</v>
       </c>
       <c r="B56">
-        <v>-0.000161702925848917</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -54449,7 +54449,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>-0.000312657794473259</v>
+        <v>-0.00015632865284977</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -54478,7 +54478,7 @@
         <v>-244</v>
       </c>
       <c r="B58">
-        <v>-0.000151271512696423</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>1.6997638852043e-14</v>
@@ -54507,7 +54507,7 @@
         <v>-243</v>
       </c>
       <c r="B59">
-        <v>-0.000146538826191229</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>1.64521043218352e-14</v>
@@ -54536,7 +54536,7 @@
         <v>-242</v>
       </c>
       <c r="B60">
-        <v>-0.00014213772292189</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -54565,7 +54565,7 @@
         <v>-241</v>
       </c>
       <c r="B61">
-        <v>-0.000138074060161126</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -54594,7 +54594,7 @@
         <v>-240</v>
       </c>
       <c r="B62">
-        <v>-0.000134351719362952</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -54710,7 +54710,7 @@
         <v>-236</v>
       </c>
       <c r="B66">
-        <v>-0.000368669937169925</v>
+        <v>1.39709216003677e-14</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -54739,7 +54739,7 @@
         <v>-235</v>
       </c>
       <c r="B67">
-        <v>-0.000241725436157618</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -54797,7 +54797,7 @@
         <v>-233</v>
       </c>
       <c r="B69">
-        <v>-0.000117750818071024</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -54826,7 +54826,7 @@
         <v>-232</v>
       </c>
       <c r="B70">
-        <v>-0.000349912580178706</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>1.28930408895772e-14</v>
@@ -54884,7 +54884,7 @@
         <v>-230</v>
       </c>
       <c r="B72">
-        <v>-0.000345620925278224</v>
+        <v>-1.30974714139782e-14</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -54942,7 +54942,7 @@
         <v>-228</v>
       </c>
       <c r="B74">
-        <v>-0.000344104965783664</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -55000,7 +55000,7 @@
         <v>-226</v>
       </c>
       <c r="B76">
-        <v>-0.000229896420162457</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -55029,7 +55029,7 @@
         <v>-225</v>
       </c>
       <c r="B77">
-        <v>-0.000115299426843823</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -55087,7 +55087,7 @@
         <v>-223</v>
       </c>
       <c r="B79">
-        <v>-0.000116358220427854</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -55116,7 +55116,7 @@
         <v>-222</v>
       </c>
       <c r="B80">
-        <v>-0.000234060207314896</v>
+        <v>-0.000117029966703809</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -55145,7 +55145,7 @@
         <v>-221</v>
       </c>
       <c r="B81">
-        <v>-0.000353329423146029</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -55174,7 +55174,7 @@
         <v>-220</v>
       </c>
       <c r="B82">
-        <v>-0.000355752457958093</v>
+        <v>-1.34814093583453e-14</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -55203,7 +55203,7 @@
         <v>-219</v>
       </c>
       <c r="B83">
-        <v>-0.00035832875469324</v>
+        <v>-1.35790390041382e-14</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -55232,7 +55232,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>-0.000240690106681845</v>
+        <v>-0.000120344908504938</v>
       </c>
       <c r="C84">
         <v>1.25389848446691e-14</v>
@@ -55290,7 +55290,7 @@
         <v>-216</v>
       </c>
       <c r="B86">
-        <v>-0.000122262093260307</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -55319,7 +55319,7 @@
         <v>-215</v>
       </c>
       <c r="B87">
-        <v>-0.000123275225498291</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>1.25311482728399e-14</v>
@@ -55348,7 +55348,7 @@
         <v>-214</v>
       </c>
       <c r="B88">
-        <v>-0.000124328470843899</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>-1.2516978899415e-14</v>
@@ -55464,7 +55464,7 @@
         <v>-210</v>
       </c>
       <c r="B92">
-        <v>-0.000258222448318894</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>-0.000109122058488336</v>
@@ -55493,7 +55493,7 @@
         <v>-209</v>
       </c>
       <c r="B93">
-        <v>-0.000130513374354951</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -55551,7 +55551,7 @@
         <v>-207</v>
       </c>
       <c r="B95">
-        <v>-0.000133675185352681</v>
+        <v>-1.51970887884922e-14</v>
       </c>
       <c r="C95">
         <v>-0.000108101563578459</v>
@@ -55696,7 +55696,7 @@
         <v>-202</v>
       </c>
       <c r="B100">
-        <v>-0.000143230360249615</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -55795,7 +55795,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.0156128024980536</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -55812,7 +55812,7 @@
         <v>-198</v>
       </c>
       <c r="B104">
-        <v>-0.000140417686446794</v>
+        <v>1.59636203169526e-14</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -55928,7 +55928,7 @@
         <v>-194</v>
       </c>
       <c r="B108">
-        <v>-0.000266408073239095</v>
+        <v>-0.000133203859179058</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -55957,7 +55957,7 @@
         <v>-193</v>
       </c>
       <c r="B109">
-        <v>-0.000131809787928115</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -55986,7 +55986,7 @@
         <v>-192</v>
       </c>
       <c r="B110">
-        <v>-0.000261141606641446</v>
+        <v>0</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -56044,7 +56044,7 @@
         <v>-190</v>
       </c>
       <c r="B112">
-        <v>-0.000256959754957101</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>1.25375052352202e-14</v>
@@ -56073,7 +56073,7 @@
         <v>-189</v>
       </c>
       <c r="B113">
-        <v>-0.000127588125115002</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -56102,7 +56102,7 @@
         <v>-188</v>
       </c>
       <c r="B114">
-        <v>-0.000126774687148768</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -56131,7 +56131,7 @@
         <v>-187</v>
       </c>
       <c r="B115">
-        <v>-0.000252046618550933</v>
+        <v>-1.43271553991546e-14</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -56189,7 +56189,7 @@
         <v>-185</v>
       </c>
       <c r="B117">
-        <v>-0.000373968314916567</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -56276,7 +56276,7 @@
         <v>-182</v>
       </c>
       <c r="B120">
-        <v>-0.000368488802844864</v>
+        <v>1.39640574547609e-14</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -56305,7 +56305,7 @@
         <v>-181</v>
       </c>
       <c r="B121">
-        <v>-0.000244542424450622</v>
+        <v>-0.000122271062729951</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -56334,7 +56334,7 @@
         <v>-180</v>
       </c>
       <c r="B122">
-        <v>-0.000121743068555513</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -56421,7 +56421,7 @@
         <v>-177</v>
       </c>
       <c r="B125">
-        <v>-0.000120425632338457</v>
+        <v>1.36907928358415e-14</v>
       </c>
       <c r="C125">
         <v>-1.28956879768799e-14</v>
@@ -56450,7 +56450,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>-0.000240234468835909</v>
+        <v>-0.000120117090136628</v>
       </c>
       <c r="C126">
         <v>-1.29099218866811e-14</v>
@@ -56479,7 +56479,7 @@
         <v>-175</v>
       </c>
       <c r="B127">
-        <v>-0.00023980182775023</v>
+        <v>1.36311230518086e-14</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -56508,7 +56508,7 @@
         <v>-174</v>
       </c>
       <c r="B128">
-        <v>-0.000359386885977652</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>1.29579209442957e-14</v>
@@ -56537,7 +56537,7 @@
         <v>-173</v>
       </c>
       <c r="B129">
-        <v>-0.000119821753157166</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -56624,7 +56624,7 @@
         <v>-170</v>
       </c>
       <c r="B132">
-        <v>-0.000483642602628247</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -56711,7 +56711,7 @@
         <v>-167</v>
       </c>
       <c r="B135">
-        <v>-0.000371921420447588</v>
+        <v>0</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -56798,7 +56798,7 @@
         <v>-164</v>
       </c>
       <c r="B138">
-        <v>-0.000388547183232731</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -56856,7 +56856,7 @@
         <v>-162</v>
       </c>
       <c r="B140">
-        <v>-0.000269482216877455</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -56943,7 +56943,7 @@
         <v>-159</v>
       </c>
       <c r="B143">
-        <v>-0.000289829029848435</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>-0.000141041933173818</v>
@@ -57001,7 +57001,7 @@
         <v>-157</v>
       </c>
       <c r="B145">
-        <v>-0.000306342984661821</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>-1.69652474678438e-14</v>
@@ -57059,7 +57059,7 @@
         <v>-155</v>
       </c>
       <c r="B147">
-        <v>-0.000162477984247766</v>
+        <v>0</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -57088,7 +57088,7 @@
         <v>-154</v>
       </c>
       <c r="B148">
-        <v>-0.000334955635118207</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -57146,7 +57146,7 @@
         <v>-152</v>
       </c>
       <c r="B150">
-        <v>-0.000356118380883991</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -57233,7 +57233,7 @@
         <v>-149</v>
       </c>
       <c r="B153">
-        <v>-0.000390027009361176</v>
+        <v>2.21703821901913e-14</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -57320,7 +57320,7 @@
         <v>-146</v>
       </c>
       <c r="B156">
-        <v>-0.000425239675714254</v>
+        <v>0</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -57349,7 +57349,7 @@
         <v>-145</v>
       </c>
       <c r="B157">
-        <v>-0.000218500908971035</v>
+        <v>0</v>
       </c>
       <c r="C157">
         <v>-1.21151464026121e-14</v>
@@ -57436,7 +57436,7 @@
         <v>-142</v>
       </c>
       <c r="B160">
-        <v>-0.000235773987050433</v>
+        <v>1.34021679038818e-14</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -57465,7 +57465,7 @@
         <v>-141</v>
       </c>
       <c r="B161">
-        <v>-0.000241309829763926</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -57494,7 +57494,7 @@
         <v>-140</v>
       </c>
       <c r="B162">
-        <v>-0.000493372770265792</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -57523,7 +57523,7 @@
         <v>-139</v>
       </c>
       <c r="B163">
-        <v>-0.000251873307734575</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -57552,7 +57552,7 @@
         <v>-138</v>
       </c>
       <c r="B164">
-        <v>-0.000256843597668167</v>
+        <v>0</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -57680,7 +57680,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>-0.0589275191514503</v>
+        <v>-1.30768318565978e-14</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -57697,7 +57697,7 @@
         <v>-133</v>
       </c>
       <c r="B169">
-        <v>-0.000277516449780999</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -57755,7 +57755,7 @@
         <v>-131</v>
       </c>
       <c r="B171">
-        <v>-0.000283394499306067</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -57784,7 +57784,7 @@
         <v>-130</v>
       </c>
       <c r="B172">
-        <v>-0.000285741227039463</v>
+        <v>0</v>
       </c>
       <c r="C172">
         <v>-1.57947524954453e-14</v>
@@ -57813,7 +57813,7 @@
         <v>-129</v>
       </c>
       <c r="B173">
-        <v>-0.000575347509915077</v>
+        <v>-1.63522656654166e-14</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -57842,7 +57842,7 @@
         <v>-128</v>
       </c>
       <c r="B174">
-        <v>-0.000289178645901672</v>
+        <v>-1.64378553592768e-14</v>
       </c>
       <c r="C174">
         <v>1.5981303466477e-14</v>
@@ -57987,7 +57987,7 @@
         <v>-123</v>
       </c>
       <c r="B179">
-        <v>-0.000290070313037023</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -58016,7 +58016,7 @@
         <v>-122</v>
       </c>
       <c r="B180">
-        <v>-0.000577829268788711</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -58045,7 +58045,7 @@
         <v>-121</v>
       </c>
       <c r="B181">
-        <v>-0.000287324121731529</v>
+        <v>0</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -58393,7 +58393,7 @@
         <v>-109</v>
       </c>
       <c r="B193">
-        <v>-0.000480592474391079</v>
+        <v>0</v>
       </c>
       <c r="C193">
         <v>-1.33160806742929e-14</v>
@@ -58422,7 +58422,7 @@
         <v>-108</v>
       </c>
       <c r="B194">
-        <v>-0.0004694813639395</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -58451,7 +58451,7 @@
         <v>-107</v>
       </c>
       <c r="B195">
-        <v>-0.000229059390526378</v>
+        <v>0</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -58509,7 +58509,7 @@
         <v>-105</v>
       </c>
       <c r="B197">
-        <v>-0.000217437628023622</v>
+        <v>0</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -58538,7 +58538,7 @@
         <v>-104</v>
       </c>
       <c r="B198">
-        <v>-0.000423111178798894</v>
+        <v>0</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -58567,7 +58567,7 @@
         <v>-103</v>
       </c>
       <c r="B199">
-        <v>-0.000205663563198635</v>
+        <v>1.16905960242864e-14</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -58625,7 +58625,7 @@
         <v>-101</v>
       </c>
       <c r="B201">
-        <v>-0.000193967607404976</v>
+        <v>2.20515211340131e-14</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -58654,7 +58654,7 @@
         <v>-100</v>
       </c>
       <c r="B202">
-        <v>-0.000188218642299195</v>
+        <v>0</v>
       </c>
       <c r="C202">
         <v>-2.08801607649261e-14</v>
@@ -58712,7 +58712,7 @@
         <v>-98</v>
       </c>
       <c r="B204">
-        <v>-0.000177056018749587</v>
+        <v>0.000177055391775131</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -58770,7 +58770,7 @@
         <v>-96</v>
       </c>
       <c r="B206">
-        <v>-0.000166510978897456</v>
+        <v>0</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -58799,7 +58799,7 @@
         <v>-95</v>
       </c>
       <c r="B207">
-        <v>-0.000323062111913999</v>
+        <v>0</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -58857,7 +58857,7 @@
         <v>-93</v>
       </c>
       <c r="B209">
-        <v>-0.000304529418313241</v>
+        <v>0</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -58915,7 +58915,7 @@
         <v>-91</v>
       </c>
       <c r="B211">
-        <v>-0.000144046970832844</v>
+        <v>1.63762210083008e-14</v>
       </c>
       <c r="C211">
         <v>-1.59369007510438e-14</v>
@@ -58944,7 +58944,7 @@
         <v>-90</v>
       </c>
       <c r="B212">
-        <v>-0.000140369593151373</v>
+        <v>-1.59581527558185e-14</v>
       </c>
       <c r="C212">
         <v>1.55199848361088e-14</v>
@@ -59002,7 +59002,7 @@
         <v>-88</v>
       </c>
       <c r="B214">
-        <v>-0.000401785534907671</v>
+        <v>0</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -59060,7 +59060,7 @@
         <v>-86</v>
       </c>
       <c r="B216">
-        <v>-0.000128733927566099</v>
+        <v>0</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -59089,7 +59089,7 @@
         <v>-85</v>
       </c>
       <c r="B217">
-        <v>-0.000253204300430244</v>
+        <v>0</v>
       </c>
       <c r="C217">
         <v>1.39319714761776e-14</v>
@@ -59147,7 +59147,7 @@
         <v>-83</v>
       </c>
       <c r="B219">
-        <v>-0.000246462341178607</v>
+        <v>0</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -59176,7 +59176,7 @@
         <v>-82</v>
       </c>
       <c r="B220">
-        <v>-0.00024393426946598</v>
+        <v>0</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -59234,7 +59234,7 @@
         <v>-80</v>
       </c>
       <c r="B222">
-        <v>-0.000120197941967995</v>
+        <v>0</v>
       </c>
       <c r="C222">
         <v>1.31217949417664e-14</v>
@@ -59263,7 +59263,7 @@
         <v>-79</v>
       </c>
       <c r="B223">
-        <v>-0.000358960307370861</v>
+        <v>0</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -59292,7 +59292,7 @@
         <v>-78</v>
       </c>
       <c r="B224">
-        <v>-0.000119305973289344</v>
+        <v>0</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -59350,7 +59350,7 @@
         <v>-76</v>
       </c>
       <c r="B226">
-        <v>-0.000119115968908667</v>
+        <v>1.35419016986651e-14</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -59379,7 +59379,7 @@
         <v>-75</v>
       </c>
       <c r="B227">
-        <v>-0.000119229443946823</v>
+        <v>0</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -59408,7 +59408,7 @@
         <v>-74</v>
       </c>
       <c r="B228">
-        <v>-0.000358363425898096</v>
+        <v>1.3580352881783e-14</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -59437,7 +59437,7 @@
         <v>-73</v>
       </c>
       <c r="B229">
-        <v>-0.000479087816799106</v>
+        <v>0</v>
       </c>
       <c r="C229">
         <v>-1.28151849592522e-14</v>
@@ -59466,7 +59466,7 @@
         <v>-72</v>
       </c>
       <c r="B230">
-        <v>-0.000360494165393408</v>
+        <v>0</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -59495,7 +59495,7 @@
         <v>-71</v>
       </c>
       <c r="B231">
-        <v>-0.000361855159020755</v>
+        <v>0</v>
       </c>
       <c r="C231">
         <v>-1.2795972091153e-14</v>
@@ -59524,7 +59524,7 @@
         <v>-70</v>
       </c>
       <c r="B232">
-        <v>-0.000363361090088448</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>-1.27866173425069e-14</v>
@@ -59553,7 +59553,7 @@
         <v>-69</v>
       </c>
       <c r="B233">
-        <v>-0.000121660421428823</v>
+        <v>0</v>
       </c>
       <c r="C233">
         <v>-1.27752948346342e-14</v>
@@ -59582,7 +59582,7 @@
         <v>-68</v>
       </c>
       <c r="B234">
-        <v>-0.000122232055109099</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>-1.27607401549219e-14</v>
@@ -59594,7 +59594,7 @@
         <v>-0.000124595376511822</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>0.0258933195235601</v>
       </c>
       <c r="G234">
         <v>0.0246184145741096</v>
@@ -59640,7 +59640,7 @@
         <v>-66</v>
       </c>
       <c r="B236">
-        <v>-0.000246910836801368</v>
+        <v>-1.40352214626241e-14</v>
       </c>
       <c r="C236">
         <v>-1.27182703075802e-14</v>
@@ -59669,7 +59669,7 @@
         <v>-65</v>
       </c>
       <c r="B237">
-        <v>-0.000124107049773921</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -59698,7 +59698,7 @@
         <v>-64</v>
       </c>
       <c r="B238">
-        <v>-0.000124790975113729</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -59785,7 +59785,7 @@
         <v>-61</v>
       </c>
       <c r="B241">
-        <v>-0.000254253340565066</v>
+        <v>-0.000127126508656383</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -59814,7 +59814,7 @@
         <v>-60</v>
       </c>
       <c r="B242">
-        <v>-0.000128044416044011</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -59959,7 +59959,7 @@
         <v>-55</v>
       </c>
       <c r="B247">
-        <v>-0.000134495735121768</v>
+        <v>1.52903742502365e-14</v>
       </c>
       <c r="C247">
         <v>0</v>
@@ -59988,7 +59988,7 @@
         <v>-54</v>
       </c>
       <c r="B248">
-        <v>-0.000136274500448528</v>
+        <v>0</v>
       </c>
       <c r="C248">
         <v>-1.21787796587207e-14</v>
@@ -60075,7 +60075,7 @@
         <v>-51</v>
       </c>
       <c r="B251">
-        <v>-0.000142203009012308</v>
+        <v>0</v>
       </c>
       <c r="C251">
         <v>1.21043369549347e-14</v>
@@ -60307,7 +60307,7 @@
         <v>-43</v>
       </c>
       <c r="B259">
-        <v>-0.000133141963947333</v>
+        <v>0</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -60336,7 +60336,7 @@
         <v>-42</v>
       </c>
       <c r="B260">
-        <v>-0.000131539658561198</v>
+        <v>-1.49543081446114e-14</v>
       </c>
       <c r="C260">
         <v>0</v>
@@ -60394,7 +60394,7 @@
         <v>-40</v>
       </c>
       <c r="B262">
-        <v>-0.000128711558681061</v>
+        <v>0</v>
       </c>
       <c r="C262">
         <v>-1.23926783952857e-14</v>
@@ -60423,7 +60423,7 @@
         <v>-39</v>
       </c>
       <c r="B263">
-        <v>-0.000127452992147156</v>
+        <v>1.44897091681429e-14</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -60510,7 +60510,7 @@
         <v>-36</v>
       </c>
       <c r="B266">
-        <v>-0.000124115367713665</v>
+        <v>0</v>
       </c>
       <c r="C266">
         <v>-1.25185639447419e-14</v>
@@ -60539,7 +60539,7 @@
         <v>-35</v>
       </c>
       <c r="B267">
-        <v>-0.000246219302616621</v>
+        <v>-1.39959124891499e-14</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -60626,7 +60626,7 @@
         <v>-32</v>
       </c>
       <c r="B270">
-        <v>-0.000120323767189917</v>
+        <v>0</v>
       </c>
       <c r="C270">
         <v>-1.25573915732705e-14</v>
@@ -60655,7 +60655,7 @@
         <v>-31</v>
       </c>
       <c r="B271">
-        <v>-0.000238942060128898</v>
+        <v>0</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -60684,7 +60684,7 @@
         <v>-30</v>
       </c>
       <c r="B272">
-        <v>-0.000237324780142645</v>
+        <v>1.34903198681446e-14</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -60713,7 +60713,7 @@
         <v>-29</v>
       </c>
       <c r="B273">
-        <v>-0.000235811793898888</v>
+        <v>-1.34043169635077e-14</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -60742,7 +60742,7 @@
         <v>-28</v>
       </c>
       <c r="B274">
-        <v>-0.000117211995486171</v>
+        <v>-1.33254454896427e-14</v>
       </c>
       <c r="C274">
         <v>1.25355283583411e-14</v>
@@ -60829,7 +60829,7 @@
         <v>-25</v>
       </c>
       <c r="B277">
-        <v>-0.000346943543038664</v>
+        <v>0</v>
       </c>
       <c r="C277">
         <v>-0.000110275589736214</v>
@@ -60858,7 +60858,7 @@
         <v>-24</v>
       </c>
       <c r="B278">
-        <v>-0.000115355820781197</v>
+        <v>1.31144233509462e-14</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -60916,7 +60916,7 @@
         <v>-22</v>
       </c>
       <c r="B280">
-        <v>-0.000230474223770465</v>
+        <v>0</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -60974,7 +60974,7 @@
         <v>-20</v>
       </c>
       <c r="B282">
-        <v>-0.00023177065829272</v>
+        <v>0</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -61003,7 +61003,7 @@
         <v>-19</v>
       </c>
       <c r="B283">
-        <v>-0.000116553105088517</v>
+        <v>1.32505385005479e-14</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -61061,7 +61061,7 @@
         <v>-17</v>
       </c>
       <c r="B285">
-        <v>-0.000356056038478115</v>
+        <v>0</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -61090,7 +61090,7 @@
         <v>-16</v>
       </c>
       <c r="B286">
-        <v>-0.000120188262892157</v>
+        <v>0</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -61148,7 +61148,7 @@
         <v>-14</v>
       </c>
       <c r="B288">
-        <v>-0.00012415296638389</v>
+        <v>0</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -61177,7 +61177,7 @@
         <v>-13</v>
       </c>
       <c r="B289">
-        <v>-0.000253281900230536</v>
+        <v>-1.43973726782487e-14</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -61206,7 +61206,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>-0.000517916680141833</v>
+        <v>-0.000129478667091748</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -61235,7 +61235,7 @@
         <v>-11</v>
       </c>
       <c r="B291">
-        <v>-0.000265347007542848</v>
+        <v>0</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -61264,7 +61264,7 @@
         <v>-10</v>
       </c>
       <c r="B292">
-        <v>-0.000272457292328474</v>
+        <v>0</v>
       </c>
       <c r="C292">
         <v>1.52679913513825e-14</v>
@@ -61293,7 +61293,7 @@
         <v>-9</v>
       </c>
       <c r="B293">
-        <v>-0.000140145919928519</v>
+        <v>0</v>
       </c>
       <c r="C293">
         <v>-1.57238638603327e-14</v>
@@ -61322,7 +61322,7 @@
         <v>-8</v>
       </c>
       <c r="B294">
-        <v>-0.000144425396335979</v>
+        <v>0</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -61351,7 +61351,7 @@
         <v>-7</v>
       </c>
       <c r="B295">
-        <v>-0.00014906461952598</v>
+        <v>-1.69466599470845e-14</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -61380,7 +61380,7 @@
         <v>-6</v>
       </c>
       <c r="B296">
-        <v>-0.000308120832675967</v>
+        <v>-1.75145875848664e-14</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -61409,7 +61409,7 @@
         <v>-5</v>
       </c>
       <c r="B297">
-        <v>-0.000478223304784903</v>
+        <v>0</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -61438,7 +61438,7 @@
         <v>-4</v>
       </c>
       <c r="B298">
-        <v>-0.000330202463651543</v>
+        <v>0</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -61554,7 +61554,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>-0.000191219213702071</v>
+        <v>0</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -61583,7 +61583,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>-0.000397110623108175</v>
+        <v>0</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -61670,7 +61670,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>-0.00044483194249425</v>
+        <v>0</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -61728,7 +61728,7 @@
         <v>6</v>
       </c>
       <c r="B308">
-        <v>-0.00023982828295737</v>
+        <v>0</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -61757,7 +61757,7 @@
         <v>7</v>
       </c>
       <c r="B309">
-        <v>-0.000497958370682589</v>
+        <v>0</v>
       </c>
       <c r="C309">
         <v>1.41024072038047e-14</v>
@@ -61815,7 +61815,7 @@
         <v>9</v>
       </c>
       <c r="B311">
-        <v>-0.000268161937639799</v>
+        <v>0</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -61873,7 +61873,7 @@
         <v>11</v>
       </c>
       <c r="B313">
-        <v>-0.000288522849560249</v>
+        <v>0</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -61931,7 +61931,7 @@
         <v>13</v>
       </c>
       <c r="B315">
-        <v>-0.000310075596423077</v>
+        <v>0</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -61989,7 +61989,7 @@
         <v>15</v>
       </c>
       <c r="B317">
-        <v>-0.000332848484033709</v>
+        <v>0</v>
       </c>
       <c r="C317">
         <v>1.88920118785214e-14</v>
@@ -62047,7 +62047,7 @@
         <v>17</v>
       </c>
       <c r="B319">
-        <v>-0.000356884116170489</v>
+        <v>0</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -62134,7 +62134,7 @@
         <v>20</v>
       </c>
       <c r="B322">
-        <v>-0.000395438224642435</v>
+        <v>0</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -62221,7 +62221,7 @@
         <v>23</v>
       </c>
       <c r="B325">
-        <v>-0.000437250220813449</v>
+        <v>0</v>
       </c>
       <c r="C325">
         <v>-1.24235961701624e-14</v>
@@ -62308,7 +62308,7 @@
         <v>26</v>
       </c>
       <c r="B328">
-        <v>-0.000482709351047853</v>
+        <v>0</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -62337,7 +62337,7 @@
         <v>27</v>
       </c>
       <c r="B329">
-        <v>-0.000498760579947008</v>
+        <v>0</v>
       </c>
       <c r="C329">
         <v>-1.41751333790867e-14</v>
@@ -62453,7 +62453,7 @@
         <v>31</v>
       </c>
       <c r="B333">
-        <v>-0.000568120486995594</v>
+        <v>0</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -62482,7 +62482,7 @@
         <v>32</v>
       </c>
       <c r="B334">
-        <v>-0.000586902679800438</v>
+        <v>0</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -62511,7 +62511,7 @@
         <v>33</v>
       </c>
       <c r="B335">
-        <v>-0.000606336213416009</v>
+        <v>0</v>
       </c>
       <c r="C335">
         <v>-1.72292463903226e-14</v>
@@ -62598,7 +62598,7 @@
         <v>36</v>
       </c>
       <c r="B338">
-        <v>-0.000669008195353587</v>
+        <v>0</v>
       </c>
       <c r="C338">
         <v>-1.90001199505331e-14</v>
@@ -62685,7 +62685,7 @@
         <v>39</v>
       </c>
       <c r="B341">
-        <v>-0.000739448075959637</v>
+        <v>0</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -62946,7 +62946,7 @@
         <v>48</v>
       </c>
       <c r="B350">
-        <v>-0.0010228714046119</v>
+        <v>0</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -62975,7 +62975,7 @@
         <v>49</v>
       </c>
       <c r="B351">
-        <v>-0.00106440728480854</v>
+        <v>0</v>
       </c>
       <c r="C351">
         <v>-1.49286229044479e-14</v>
@@ -63033,7 +63033,7 @@
         <v>51</v>
       </c>
       <c r="B353">
-        <v>-0.00115656407943834</v>
+        <v>0</v>
       </c>
       <c r="C353">
         <v>-1.61309178691692e-14</v>
@@ -63294,7 +63294,7 @@
         <v>60</v>
       </c>
       <c r="B362">
-        <v>-0.00184382778649355</v>
+        <v>-1.31009428379692e-14</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -63961,7 +63961,7 @@
         <v>83</v>
       </c>
       <c r="B385">
-        <v>-0.00163770655573553</v>
+        <v>0</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -64338,7 +64338,7 @@
         <v>96</v>
       </c>
       <c r="B398">
-        <v>-0.000758276588972213</v>
+        <v>0</v>
       </c>
       <c r="C398">
         <v>0</v>
@@ -64483,7 +64483,7 @@
         <v>101</v>
       </c>
       <c r="B403">
-        <v>-0.000562417043488771</v>
+        <v>0</v>
       </c>
       <c r="C403">
         <v>1.40936658833817e-14</v>
@@ -64512,7 +64512,7 @@
         <v>102</v>
       </c>
       <c r="B404">
-        <v>-0.00053096593322826</v>
+        <v>-1.50908793441565e-14</v>
       </c>
       <c r="C404">
         <v>1.33860718953689e-14</v>
@@ -64541,7 +64541,7 @@
         <v>103</v>
       </c>
       <c r="B405">
-        <v>-0.000501607652528742</v>
+        <v>0</v>
       </c>
       <c r="C405">
         <v>1.27200063687524e-14</v>
@@ -64657,7 +64657,7 @@
         <v>107</v>
       </c>
       <c r="B409">
-        <v>-0.000402029444638445</v>
+        <v>0</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -64686,7 +64686,7 @@
         <v>108</v>
       </c>
       <c r="B410">
-        <v>-0.000380963991274535</v>
+        <v>0</v>
       </c>
       <c r="C410">
         <v>-1.98413966542548e-14</v>
@@ -64715,7 +64715,7 @@
         <v>109</v>
       </c>
       <c r="B411">
-        <v>-0.000361223391373391</v>
+        <v>2.05330983682905e-14</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -64744,7 +64744,7 @@
         <v>110</v>
       </c>
       <c r="B412">
-        <v>-0.000685447940232213</v>
+        <v>0</v>
       </c>
       <c r="C412">
         <v>0</v>
@@ -64831,7 +64831,7 @@
         <v>113</v>
       </c>
       <c r="B415">
-        <v>-0.000293947330527076</v>
+        <v>-1.67089221161818e-14</v>
       </c>
       <c r="C415">
         <v>0.000275535986355323</v>
@@ -64918,7 +64918,7 @@
         <v>116</v>
       </c>
       <c r="B418">
-        <v>-0.000254059231377635</v>
+        <v>0</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -64947,7 +64947,7 @@
         <v>117</v>
       </c>
       <c r="B419">
-        <v>-0.00024252536816156</v>
+        <v>0</v>
       </c>
       <c r="C419">
         <v>0</v>
@@ -65005,7 +65005,7 @@
         <v>119</v>
       </c>
       <c r="B421">
-        <v>-0.000221888403453737</v>
+        <v>-1.26128674709677e-14</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -65063,7 +65063,7 @@
         <v>121</v>
       </c>
       <c r="B423">
-        <v>-0.00040859103510605</v>
+        <v>-1.16128082267034e-14</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -65104,7 +65104,7 @@
         <v>-0.000717818406303002</v>
       </c>
       <c r="F424">
-        <v>-0.0647039792947195</v>
+        <v>-0.0485201358563822</v>
       </c>
       <c r="G424">
         <v>-0.0646725949878811</v>
@@ -65150,7 +65150,7 @@
         <v>124</v>
       </c>
       <c r="B426">
-        <v>-0.000183155550341467</v>
+        <v>0</v>
       </c>
       <c r="C426">
         <v>0</v>
@@ -65179,7 +65179,7 @@
         <v>125</v>
       </c>
       <c r="B427">
-        <v>-0.000177409397016746</v>
+        <v>0</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -65237,7 +65237,7 @@
         <v>127</v>
       </c>
       <c r="B429">
-        <v>-0.000335426394043229</v>
+        <v>0</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -65266,7 +65266,7 @@
         <v>128</v>
       </c>
       <c r="B430">
-        <v>-0.00016370497089757</v>
+        <v>0</v>
       </c>
       <c r="C430">
         <v>0</v>
@@ -65353,7 +65353,7 @@
         <v>131</v>
       </c>
       <c r="B433">
-        <v>-0.000309316935421799</v>
+        <v>-1.75825777344485e-14</v>
       </c>
       <c r="C433">
         <v>0</v>
@@ -65382,7 +65382,7 @@
         <v>132</v>
       </c>
       <c r="B434">
-        <v>-0.00030503289016417</v>
+        <v>0</v>
       </c>
       <c r="C434">
         <v>-1.71501555642807e-14</v>
@@ -65411,7 +65411,7 @@
         <v>133</v>
       </c>
       <c r="B435">
-        <v>-0.000150746799641879</v>
+        <v>0</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -65469,7 +65469,7 @@
         <v>135</v>
       </c>
       <c r="B437">
-        <v>-0.000148163952299557</v>
+        <v>0</v>
       </c>
       <c r="C437">
         <v>0</v>
@@ -65527,7 +65527,7 @@
         <v>137</v>
       </c>
       <c r="B439">
-        <v>-0.000146582215762624</v>
+        <v>0</v>
       </c>
       <c r="C439">
         <v>-1.65728360209533e-14</v>
@@ -65585,7 +65585,7 @@
         <v>139</v>
       </c>
       <c r="B441">
-        <v>-0.00043704065207088</v>
+        <v>0</v>
       </c>
       <c r="C441">
         <v>-1.64938989768269e-14</v>
@@ -65701,7 +65701,7 @@
         <v>143</v>
       </c>
       <c r="B445">
-        <v>-0.000289480426050446</v>
+        <v>0</v>
       </c>
       <c r="C445">
         <v>-1.64170852359982e-14</v>
@@ -65730,7 +65730,7 @@
         <v>144</v>
       </c>
       <c r="B446">
-        <v>-0.000289002306247998</v>
+        <v>0</v>
       </c>
       <c r="C446">
         <v>-0.000144208791269317</v>
@@ -65759,7 +65759,7 @@
         <v>145</v>
       </c>
       <c r="B447">
-        <v>-0.000288415502919687</v>
+        <v>0</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -65788,7 +65788,7 @@
         <v>146</v>
       </c>
       <c r="B448">
-        <v>-0.000431518701291112</v>
+        <v>0</v>
       </c>
       <c r="C448">
         <v>-1.63263871455552e-14</v>
@@ -65817,7 +65817,7 @@
         <v>147</v>
       </c>
       <c r="B449">
-        <v>-0.000286757262854094</v>
+        <v>0</v>
       </c>
       <c r="C449">
         <v>-1.62764128934446e-14</v>
@@ -65846,7 +65846,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>-0.000285621662682631</v>
+        <v>-0.000142810627392271</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -65962,7 +65962,7 @@
         <v>152</v>
       </c>
       <c r="B454">
-        <v>-0.000139311855172794</v>
+        <v>0</v>
       </c>
       <c r="C454">
         <v>-1.58177172991865e-14</v>
@@ -65991,7 +65991,7 @@
         <v>153</v>
       </c>
       <c r="B455">
-        <v>-0.000276245001685468</v>
+        <v>0</v>
       </c>
       <c r="C455">
         <v>0</v>
@@ -66020,7 +66020,7 @@
         <v>154</v>
       </c>
       <c r="B456">
-        <v>-0.000273634121073892</v>
+        <v>0</v>
       </c>
       <c r="C456">
         <v>-0.000136620607318225</v>
@@ -66049,7 +66049,7 @@
         <v>155</v>
       </c>
       <c r="B457">
-        <v>-0.000135407963880786</v>
+        <v>0</v>
       </c>
       <c r="C457">
         <v>0</v>
@@ -66136,7 +66136,7 @@
         <v>158</v>
       </c>
       <c r="B460">
-        <v>-0.000130743564798649</v>
+        <v>0</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -66165,7 +66165,7 @@
         <v>159</v>
       </c>
       <c r="B461">
-        <v>-0.00025825179033911</v>
+        <v>0</v>
       </c>
       <c r="C461">
         <v>1.46414223427463e-14</v>
@@ -66194,7 +66194,7 @@
         <v>160</v>
       </c>
       <c r="B462">
-        <v>-0.000382587669955525</v>
+        <v>0</v>
       </c>
       <c r="C462">
         <v>0</v>
@@ -66223,7 +66223,7 @@
         <v>161</v>
       </c>
       <c r="B463">
-        <v>-0.000377974184368594</v>
+        <v>-1.43235091143867e-14</v>
       </c>
       <c r="C463">
         <v>-1.42727449052976e-14</v>
@@ -66252,7 +66252,7 @@
         <v>162</v>
       </c>
       <c r="B464">
-        <v>-0.000373664616069454</v>
+        <v>0</v>
       </c>
       <c r="C464">
         <v>0</v>
@@ -66281,7 +66281,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>-0.00036979878016236</v>
+        <v>0</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -66310,7 +66310,7 @@
         <v>164</v>
       </c>
       <c r="B466">
-        <v>-0.000366525920704446</v>
+        <v>1.38896733803726e-14</v>
       </c>
       <c r="C466">
         <v>0</v>
@@ -66339,7 +66339,7 @@
         <v>165</v>
       </c>
       <c r="B467">
-        <v>-0.000121334926876298</v>
+        <v>0</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -66426,7 +66426,7 @@
         <v>168</v>
       </c>
       <c r="B470">
-        <v>-0.000362615326788056</v>
+        <v>0</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -66455,7 +66455,7 @@
         <v>169</v>
       </c>
       <c r="B471">
-        <v>-0.000121585129649428</v>
+        <v>0</v>
       </c>
       <c r="C471">
         <v>-1.36642669566041e-14</v>
@@ -66513,7 +66513,7 @@
         <v>171</v>
       </c>
       <c r="B473">
-        <v>-0.000249227705655399</v>
+        <v>-1.41669195559292e-14</v>
       </c>
       <c r="C473">
         <v>0</v>
@@ -66542,7 +66542,7 @@
         <v>172</v>
       </c>
       <c r="B474">
-        <v>-0.000127010093489126</v>
+        <v>0</v>
       </c>
       <c r="C474">
         <v>0</v>
@@ -66600,7 +66600,7 @@
         <v>174</v>
       </c>
       <c r="B476">
-        <v>-0.000401154254514021</v>
+        <v>0</v>
       </c>
       <c r="C476">
         <v>0</v>
@@ -66629,7 +66629,7 @@
         <v>175</v>
       </c>
       <c r="B477">
-        <v>-0.000276135157107471</v>
+        <v>0</v>
       </c>
       <c r="C477">
         <v>0</v>
@@ -66687,7 +66687,7 @@
         <v>177</v>
       </c>
       <c r="B479">
-        <v>-0.000148804873653703</v>
+        <v>1.69171303501397e-14</v>
       </c>
       <c r="C479">
         <v>0</v>
@@ -66716,7 +66716,7 @@
         <v>178</v>
       </c>
       <c r="B480">
-        <v>-0.000155196121334866</v>
+        <v>0</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -66745,7 +66745,7 @@
         <v>179</v>
       </c>
       <c r="B481">
-        <v>-0.000162266012406268</v>
+        <v>0</v>
       </c>
       <c r="C481">
         <v>0</v>
@@ -66774,7 +66774,7 @@
         <v>180</v>
       </c>
       <c r="B482">
-        <v>-0.00051003060182405</v>
+        <v>-0.000170009622540616</v>
       </c>
       <c r="C482">
         <v>0</v>
@@ -66803,7 +66803,7 @@
         <v>181</v>
       </c>
       <c r="B483">
-        <v>-0.000178422000142087</v>
+        <v>0</v>
       </c>
       <c r="C483">
         <v>1.94872123240662e-14</v>
@@ -66861,7 +66861,7 @@
         <v>183</v>
       </c>
       <c r="B485">
-        <v>-0.000197232823481821</v>
+        <v>1.12113658860486e-14</v>
       </c>
       <c r="C485">
         <v>0</v>
@@ -66919,7 +66919,7 @@
         <v>185</v>
       </c>
       <c r="B487">
-        <v>-0.000218670526925198</v>
+        <v>0</v>
       </c>
       <c r="C487">
         <v>1.17889113045226e-14</v>
@@ -66977,7 +66977,7 @@
         <v>187</v>
       </c>
       <c r="B489">
-        <v>-0.00048546163761006</v>
+        <v>0</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -67064,7 +67064,7 @@
         <v>190</v>
       </c>
       <c r="B492">
-        <v>-0.000283787772145763</v>
+        <v>1.61314214210371e-14</v>
       </c>
       <c r="C492">
         <v>0</v>
@@ -67093,7 +67093,7 @@
         <v>191</v>
       </c>
       <c r="B493">
-        <v>-0.000298822341163434</v>
+        <v>0</v>
       </c>
       <c r="C493">
         <v>0</v>
@@ -67122,7 +67122,7 @@
         <v>192</v>
       </c>
       <c r="B494">
-        <v>-0.000314543550137675</v>
+        <v>0</v>
       </c>
       <c r="C494">
         <v>-1.65717972382411e-14</v>
@@ -67180,7 +67180,7 @@
         <v>194</v>
       </c>
       <c r="B496">
-        <v>-0.000348090030016916</v>
+        <v>0</v>
       </c>
       <c r="C496">
         <v>0</v>
@@ -67325,7 +67325,7 @@
         <v>199</v>
       </c>
       <c r="B501">
-        <v>-0.000444760718722804</v>
+        <v>1.26408036925668e-14</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -67354,7 +67354,7 @@
         <v>200</v>
       </c>
       <c r="B502">
-        <v>-0.000466391806417716</v>
+        <v>1.32555905800507e-14</v>
       </c>
       <c r="C502">
         <v>0</v>
@@ -67383,7 +67383,7 @@
         <v>201</v>
       </c>
       <c r="B503">
-        <v>-0.000488820671236987</v>
+        <v>0</v>
       </c>
       <c r="C503">
         <v>0</v>
@@ -67470,7 +67470,7 @@
         <v>204</v>
       </c>
       <c r="B506">
-        <v>0</v>
+        <v>0.000561028702231085</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -67731,7 +67731,7 @@
         <v>213</v>
       </c>
       <c r="B515">
-        <v>-0.000825300409341215</v>
+        <v>0</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -68021,7 +68021,7 @@
         <v>223</v>
       </c>
       <c r="B525">
-        <v>-0.00121144573935112</v>
+        <v>-1.7215470841099e-14</v>
       </c>
       <c r="C525">
         <v>0</v>
@@ -69007,7 +69007,7 @@
         <v>257</v>
       </c>
       <c r="B559">
-        <v>-0.00325330210163713</v>
+        <v>0</v>
       </c>
       <c r="C559">
         <v>0</v>
@@ -69761,7 +69761,7 @@
         <v>283</v>
       </c>
       <c r="B585">
-        <v>-0.00520887592458184</v>
+        <v>0</v>
       </c>
       <c r="C585">
         <v>-1.79711350032905e-14</v>
@@ -70254,7 +70254,7 @@
         <v>300</v>
       </c>
       <c r="B602">
-        <v>-0.0064259092661576</v>
+        <v>1.14139744226708e-14</v>
       </c>
       <c r="C602">
         <v>1.12813212206291e-14</v>

--- a/XC-comparisons/32E-DAT_comparison.xlsx
+++ b/XC-comparisons/32E-DAT_comparison.xlsx
@@ -731,7 +731,7 @@
         <v>-290</v>
       </c>
       <c r="B12">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>-239</v>
       </c>
       <c r="B63">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>-237</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.00100000000009004</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>1.13686837721616e-13</v>
@@ -4037,7 +4037,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C126">
         <v>-1.13686837721616e-13</v>
@@ -4965,7 +4965,7 @@
         <v>-144</v>
       </c>
       <c r="B158">
-        <v>-0.0010000000000332</v>
+        <v>-5.6843418860808e-14</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>-112</v>
       </c>
       <c r="B190">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>-90</v>
       </c>
       <c r="B212">
-        <v>-1.13686837721616e-13</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C212">
         <v>1.13686837721616e-13</v>
@@ -7343,7 +7343,7 @@
         <v>-62</v>
       </c>
       <c r="B240">
-        <v>-0.00100000000009004</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>-18</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -9054,7 +9054,7 @@
         <v>-3</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -12418,7 +12418,7 @@
         <v>113</v>
       </c>
       <c r="B415">
-        <v>-5.6843418860808e-14</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C415">
         <v>0.00099999999991951</v>
@@ -12476,7 +12476,7 @@
         <v>115</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C417">
         <v>-5.6843418860808e-14</v>
@@ -13433,7 +13433,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>-0.000999999999976353</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -13520,7 +13520,7 @@
         <v>151</v>
       </c>
       <c r="B453">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>0.000999999999976353</v>
       </c>
       <c r="C465">
         <v>0</v>
@@ -35673,7 +35673,7 @@
         <v>-290</v>
       </c>
       <c r="B12">
-        <v>163.58</v>
+        <v>163.581</v>
       </c>
       <c r="C12">
         <v>163.733</v>
@@ -36978,7 +36978,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>639.678</v>
+        <v>639.679</v>
       </c>
       <c r="C57">
         <v>646.702</v>
@@ -37152,7 +37152,7 @@
         <v>-239</v>
       </c>
       <c r="B63">
-        <v>763.515</v>
+        <v>763.516</v>
       </c>
       <c r="C63">
         <v>776.32</v>
@@ -37210,7 +37210,7 @@
         <v>-237</v>
       </c>
       <c r="B65">
-        <v>798.43</v>
+        <v>798.431</v>
       </c>
       <c r="C65">
         <v>813.945</v>
@@ -37761,7 +37761,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>830.945</v>
+        <v>830.946</v>
       </c>
       <c r="C84">
         <v>906.667</v>
@@ -38979,7 +38979,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>832.521</v>
+        <v>832.522</v>
       </c>
       <c r="C126">
         <v>880.616</v>
@@ -39907,7 +39907,7 @@
         <v>-144</v>
       </c>
       <c r="B158">
-        <v>445.752</v>
+        <v>445.753</v>
       </c>
       <c r="C158">
         <v>457.05</v>
@@ -40835,7 +40835,7 @@
         <v>-112</v>
       </c>
       <c r="B190">
-        <v>390.744</v>
+        <v>390.745</v>
       </c>
       <c r="C190">
         <v>401.092</v>
@@ -41473,7 +41473,7 @@
         <v>-90</v>
       </c>
       <c r="B212">
-        <v>712.406</v>
+        <v>712.407</v>
       </c>
       <c r="C212">
         <v>732.519</v>
@@ -42285,7 +42285,7 @@
         <v>-62</v>
       </c>
       <c r="B240">
-        <v>791.837</v>
+        <v>791.838</v>
       </c>
       <c r="C240">
         <v>904.347</v>
@@ -43561,7 +43561,7 @@
         <v>-18</v>
       </c>
       <c r="B284">
-        <v>851.212</v>
+        <v>851.213</v>
       </c>
       <c r="C284">
         <v>874.368</v>
@@ -43735,7 +43735,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>772.328</v>
+        <v>772.329</v>
       </c>
       <c r="C290">
         <v>785.319</v>
@@ -43996,7 +43996,7 @@
         <v>-3</v>
       </c>
       <c r="B299">
-        <v>584.335</v>
+        <v>584.336</v>
       </c>
       <c r="C299">
         <v>589.18</v>
@@ -44141,7 +44141,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>484.96</v>
+        <v>484.961</v>
       </c>
       <c r="C304">
         <v>487.642</v>
@@ -47360,7 +47360,7 @@
         <v>113</v>
       </c>
       <c r="B415">
-        <v>340.198</v>
+        <v>340.199</v>
       </c>
       <c r="C415">
         <v>362.929</v>
@@ -47418,7 +47418,7 @@
         <v>115</v>
       </c>
       <c r="B417">
-        <v>375.309</v>
+        <v>375.31</v>
       </c>
       <c r="C417">
         <v>397.133</v>
@@ -48375,7 +48375,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>700.228</v>
+        <v>700.229</v>
       </c>
       <c r="C450">
         <v>701.179</v>
@@ -48462,7 +48462,7 @@
         <v>151</v>
       </c>
       <c r="B453">
-        <v>712.364</v>
+        <v>712.365</v>
       </c>
       <c r="C453">
         <v>713.253</v>
@@ -48810,7 +48810,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>811.255</v>
+        <v>811.256</v>
       </c>
       <c r="C465">
         <v>815.187</v>
@@ -53144,7 +53144,7 @@
         <v>-290</v>
       </c>
       <c r="B12">
-        <v>-0.000611321677469602</v>
+        <v>-1.73747008701524e-14</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -54449,7 +54449,7 @@
         <v>-245</v>
       </c>
       <c r="B57">
-        <v>-0.00015632865284977</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -54623,7 +54623,7 @@
         <v>-239</v>
       </c>
       <c r="B63">
-        <v>-0.000130973196347163</v>
+        <v>-1.48899090158708e-14</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -54681,7 +54681,7 @@
         <v>-237</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.000125245638018819</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -55232,7 +55232,7 @@
         <v>-218</v>
       </c>
       <c r="B84">
-        <v>-0.000120344908504938</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>1.25389848446691e-14</v>
@@ -56450,7 +56450,7 @@
         <v>-176</v>
       </c>
       <c r="B126">
-        <v>-0.000120117090136628</v>
+        <v>1.365571573143e-14</v>
       </c>
       <c r="C126">
         <v>-1.29099218866811e-14</v>
@@ -57378,7 +57378,7 @@
         <v>-144</v>
       </c>
       <c r="B158">
-        <v>-0.000224339991751736</v>
+        <v>-1.27522235096136e-14</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -58306,7 +58306,7 @@
         <v>-112</v>
       </c>
       <c r="B190">
-        <v>-0.000255922035904928</v>
+        <v>0</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -58944,7 +58944,7 @@
         <v>-90</v>
       </c>
       <c r="B212">
-        <v>-1.59581527558185e-14</v>
+        <v>0.000140369199064068</v>
       </c>
       <c r="C212">
         <v>1.55199848361088e-14</v>
@@ -59756,7 +59756,7 @@
         <v>-62</v>
       </c>
       <c r="B240">
-        <v>-0.000126288617491989</v>
+        <v>-1.43573354299258e-14</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -61032,7 +61032,7 @@
         <v>-18</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>0.000117479408793845</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -61206,7 +61206,7 @@
         <v>-12</v>
       </c>
       <c r="B290">
-        <v>-0.000129478667091748</v>
+        <v>0</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -61467,7 +61467,7 @@
         <v>-3</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>0.000171134415811511</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -61612,7 +61612,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>-0.000206202573414961</v>
+        <v>0</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -64831,7 +64831,7 @@
         <v>113</v>
       </c>
       <c r="B415">
-        <v>-1.67089221161818e-14</v>
+        <v>0.000293945602419864</v>
       </c>
       <c r="C415">
         <v>0.000275535986355323</v>
@@ -64889,7 +64889,7 @@
         <v>115</v>
       </c>
       <c r="B417">
-        <v>0</v>
+        <v>0.000266446404299473</v>
       </c>
       <c r="C417">
         <v>-1.43134463418573e-14</v>
@@ -65846,7 +65846,7 @@
         <v>148</v>
       </c>
       <c r="B450">
-        <v>-0.000142810627392271</v>
+        <v>1.62356654353956e-14</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -65933,7 +65933,7 @@
         <v>151</v>
       </c>
       <c r="B453">
-        <v>-0.000140377672085669</v>
+        <v>0</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -66281,7 +66281,7 @@
         <v>163</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>0.000123265652269611</v>
       </c>
       <c r="C465">
         <v>0</v>
